--- a/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
+++ b/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="3" state="hidden" r:id="rId1"/>
@@ -27,16 +27,15 @@
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">final!$A$1:$K$272</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">quotation!$A$1:$K$244</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">quotation!$A$6:$K$246</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">final!$1:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">quotation!$1:$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="131">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -445,15 +444,21 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t xml:space="preserve">Location:- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.Y.: 2081/2082      </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -636,9 +641,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -646,7 +651,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,7 +661,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,7 +682,7 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -715,7 +720,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -762,7 +767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,7 +780,7 @@
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -788,7 +793,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -799,7 +804,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,27 +814,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,20 +841,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,132 +1325,132 @@
       <selection activeCell="C268" sqref="C268:D268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="71" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="71" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -1494,7 +1502,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>21</v>
@@ -1522,7 +1530,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>22</v>
@@ -1549,7 +1557,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>23</v>
@@ -1577,7 +1585,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>24</v>
@@ -1605,7 +1613,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="22" t="s">
         <v>25</v>
@@ -1633,7 +1641,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="22"/>
       <c r="C15" s="14"/>
@@ -1648,7 +1656,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -1667,7 +1675,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>28</v>
@@ -1698,7 +1706,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14">
@@ -1727,7 +1735,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="22" t="s">
         <v>25</v>
@@ -1754,7 +1762,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="22"/>
       <c r="C20" s="14"/>
@@ -1769,7 +1777,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>3</v>
       </c>
@@ -1788,7 +1796,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="22" t="s">
         <v>30</v>
@@ -1817,7 +1825,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="22" t="s">
         <v>25</v>
@@ -1842,7 +1850,7 @@
       </c>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="22"/>
       <c r="C24" s="26"/>
@@ -1855,7 +1863,7 @@
       <c r="J24" s="29"/>
       <c r="K24" s="30"/>
     </row>
-    <row r="25" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>4</v>
       </c>
@@ -1872,7 +1880,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="35" t="s">
         <v>32</v>
@@ -1899,7 +1907,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="36" t="s">
         <v>25</v>
@@ -1924,7 +1932,7 @@
       </c>
       <c r="K27" s="34"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="36" t="s">
         <v>33</v>
@@ -1942,7 +1950,7 @@
       </c>
       <c r="K28" s="34"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="34"/>
       <c r="C29" s="32"/>
@@ -1955,7 +1963,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>5</v>
       </c>
@@ -1972,7 +1980,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="35" t="s">
         <v>32</v>
@@ -2001,7 +2009,7 @@
       <c r="J31" s="33"/>
       <c r="K31" s="34"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="36" t="s">
         <v>25</v>
@@ -2026,7 +2034,7 @@
       </c>
       <c r="K32" s="34"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="36" t="s">
         <v>33</v>
@@ -2044,7 +2052,7 @@
       </c>
       <c r="K33" s="34"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="36"/>
       <c r="C34" s="32"/>
@@ -2057,7 +2065,7 @@
       <c r="J34" s="39"/>
       <c r="K34" s="34"/>
     </row>
-    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>6</v>
       </c>
@@ -2084,7 +2092,7 @@
       <c r="J35" s="37"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="43" t="s">
         <v>32</v>
@@ -2114,7 +2122,7 @@
       <c r="J36" s="37"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="43" t="s">
         <v>40</v>
@@ -2144,7 +2152,7 @@
       <c r="J37" s="37"/>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="43" t="s">
         <v>41</v>
@@ -2174,7 +2182,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="43" t="s">
         <v>42</v>
@@ -2204,7 +2212,7 @@
       <c r="J39" s="37"/>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="43"/>
       <c r="C40" s="14">
@@ -2232,7 +2240,7 @@
       <c r="J40" s="37"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="B41" s="43" t="s">
         <v>25</v>
@@ -2257,7 +2265,7 @@
       </c>
       <c r="K41" s="34"/>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="43" t="s">
         <v>44</v>
@@ -2275,7 +2283,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="43"/>
       <c r="C43" s="14"/>
@@ -2288,7 +2296,7 @@
       <c r="J43" s="37"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>7</v>
       </c>
@@ -2305,7 +2313,7 @@
       <c r="J44" s="37"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="B45" s="35" t="s">
         <v>40</v>
@@ -2332,7 +2340,7 @@
       <c r="J45" s="33"/>
       <c r="K45" s="34"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="B46" s="35" t="s">
         <v>46</v>
@@ -2361,7 +2369,7 @@
       <c r="J46" s="33"/>
       <c r="K46" s="34"/>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="43" t="s">
         <v>25</v>
@@ -2386,7 +2394,7 @@
       </c>
       <c r="K47" s="34"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="43" t="s">
         <v>47</v>
@@ -2404,7 +2412,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="43"/>
       <c r="C49" s="14"/>
@@ -2417,7 +2425,7 @@
       <c r="J49" s="37"/>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>8</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>20.802200000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="22" t="s">
         <v>49</v>
@@ -2466,7 +2474,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="22"/>
       <c r="C52" s="26">
@@ -2491,7 +2499,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="22" t="s">
         <v>25</v>
@@ -2516,7 +2524,7 @@
       </c>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="22" t="s">
         <v>44</v>
@@ -2536,7 +2544,7 @@
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="22"/>
       <c r="C55" s="26"/>
@@ -2549,7 +2557,7 @@
       <c r="J55" s="29"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>9</v>
       </c>
@@ -2566,7 +2574,7 @@
       <c r="J56" s="29"/>
       <c r="K56" s="30"/>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="B57" s="22" t="s">
         <v>117</v>
@@ -2595,7 +2603,7 @@
       <c r="J57" s="39"/>
       <c r="K57" s="30"/>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="22" t="s">
         <v>52</v>
@@ -2624,7 +2632,7 @@
       <c r="J58" s="39"/>
       <c r="K58" s="30"/>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="B59" s="22" t="s">
         <v>25</v>
@@ -2649,7 +2657,7 @@
       </c>
       <c r="K59" s="30"/>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="22" t="s">
         <v>44</v>
@@ -2669,7 +2677,7 @@
       <c r="M60" s="21"/>
       <c r="N60" s="21"/>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="B61" s="22"/>
       <c r="C61" s="26"/>
@@ -2682,7 +2690,7 @@
       <c r="J61" s="29"/>
       <c r="K61" s="30"/>
     </row>
-    <row r="62" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>10</v>
       </c>
@@ -2700,7 +2708,7 @@
       <c r="K62" s="16"/>
       <c r="M62" s="21"/>
     </row>
-    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="13" t="s">
         <v>54</v>
@@ -2728,7 +2736,7 @@
       <c r="M63" s="21"/>
       <c r="N63" s="21"/>
     </row>
-    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="13" t="s">
         <v>22</v>
@@ -2756,7 +2764,7 @@
       <c r="M64" s="21"/>
       <c r="N64" s="21"/>
     </row>
-    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -2784,7 +2792,7 @@
       <c r="M65" s="21"/>
       <c r="N65" s="21"/>
     </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="13" t="s">
         <v>55</v>
@@ -2812,7 +2820,7 @@
       <c r="M66" s="21"/>
       <c r="N66" s="21"/>
     </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
         <v>56</v>
@@ -2840,7 +2848,7 @@
       <c r="M67" s="21"/>
       <c r="N67" s="21"/>
     </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14">
@@ -2866,7 +2874,7 @@
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
     </row>
-    <row r="69" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="48" t="s">
         <v>57</v>
@@ -2892,7 +2900,7 @@
       <c r="J69" s="51"/>
       <c r="K69" s="52"/>
     </row>
-    <row r="70" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="48" t="s">
         <v>58</v>
@@ -2918,7 +2926,7 @@
       <c r="J70" s="51"/>
       <c r="K70" s="52"/>
     </row>
-    <row r="71" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="48" t="s">
         <v>59</v>
@@ -2945,7 +2953,7 @@
       <c r="J71" s="51"/>
       <c r="K71" s="52"/>
     </row>
-    <row r="72" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="48" t="s">
         <v>60</v>
@@ -2971,7 +2979,7 @@
       <c r="J72" s="51"/>
       <c r="K72" s="52"/>
     </row>
-    <row r="73" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="48"/>
       <c r="C73" s="49">
@@ -2995,7 +3003,7 @@
       <c r="J73" s="51"/>
       <c r="K73" s="52"/>
     </row>
-    <row r="74" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="48" t="s">
         <v>22</v>
@@ -3021,7 +3029,7 @@
       <c r="J74" s="51"/>
       <c r="K74" s="52"/>
     </row>
-    <row r="75" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="48" t="s">
         <v>61</v>
@@ -3047,7 +3055,7 @@
       <c r="J75" s="51"/>
       <c r="K75" s="52"/>
     </row>
-    <row r="76" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="48"/>
       <c r="C76" s="49">
@@ -3071,7 +3079,7 @@
       <c r="J76" s="51"/>
       <c r="K76" s="52"/>
     </row>
-    <row r="77" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="48" t="s">
         <v>62</v>
@@ -3096,7 +3104,7 @@
       <c r="J77" s="51"/>
       <c r="K77" s="52"/>
     </row>
-    <row r="78" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="48"/>
       <c r="C78" s="49">
@@ -3118,7 +3126,7 @@
       <c r="J78" s="51"/>
       <c r="K78" s="52"/>
     </row>
-    <row r="79" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="48" t="s">
         <v>63</v>
@@ -3144,7 +3152,7 @@
       <c r="J79" s="51"/>
       <c r="K79" s="52"/>
     </row>
-    <row r="80" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="48" t="s">
         <v>64</v>
@@ -3171,7 +3179,7 @@
       <c r="J80" s="51"/>
       <c r="K80" s="52"/>
     </row>
-    <row r="81" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="48" t="s">
         <v>65</v>
@@ -3198,7 +3206,7 @@
       <c r="J81" s="51"/>
       <c r="K81" s="52"/>
     </row>
-    <row r="82" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="48" t="s">
         <v>66</v>
@@ -3224,7 +3232,7 @@
       <c r="J82" s="51"/>
       <c r="K82" s="52"/>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="22" t="s">
         <v>25</v>
@@ -3252,7 +3260,7 @@
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
     </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="22" t="s">
         <v>44</v>
@@ -3272,7 +3280,7 @@
       <c r="M84" s="21"/>
       <c r="N84" s="21"/>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="22"/>
       <c r="C85" s="14"/>
@@ -3287,7 +3295,7 @@
       <c r="M85" s="21"/>
       <c r="N85" s="21"/>
     </row>
-    <row r="86" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>11</v>
       </c>
@@ -3306,7 +3314,7 @@
       <c r="M86" s="21"/>
       <c r="N86" s="21"/>
     </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="22" t="s">
         <v>49</v>
@@ -3332,7 +3340,7 @@
       <c r="M87" s="21"/>
       <c r="N87" s="21"/>
     </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="22" t="s">
         <v>51</v>
@@ -3357,7 +3365,7 @@
       <c r="M88" s="21"/>
       <c r="N88" s="21"/>
     </row>
-    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="22" t="s">
         <v>25</v>
@@ -3385,7 +3393,7 @@
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
     </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="22" t="s">
         <v>44</v>
@@ -3405,7 +3413,7 @@
       <c r="M90" s="21"/>
       <c r="N90" s="21"/>
     </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="22"/>
       <c r="C91" s="14"/>
@@ -3420,7 +3428,7 @@
       <c r="M91" s="21"/>
       <c r="N91" s="21"/>
     </row>
-    <row r="92" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>12</v>
       </c>
@@ -3439,7 +3447,7 @@
       <c r="M92" s="21"/>
       <c r="N92" s="21"/>
     </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="22" t="s">
         <v>49</v>
@@ -3465,7 +3473,7 @@
       <c r="M93" s="21"/>
       <c r="N93" s="21"/>
     </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="22" t="s">
         <v>51</v>
@@ -3490,7 +3498,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
     </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="22" t="s">
         <v>25</v>
@@ -3518,7 +3526,7 @@
       <c r="M95" s="21"/>
       <c r="N95" s="21"/>
     </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="22" t="s">
         <v>44</v>
@@ -3538,7 +3546,7 @@
       <c r="M96" s="21"/>
       <c r="N96" s="21"/>
     </row>
-    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="22"/>
       <c r="C97" s="14"/>
@@ -3553,7 +3561,7 @@
       <c r="M97" s="21"/>
       <c r="N97" s="21"/>
     </row>
-    <row r="98" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>13</v>
       </c>
@@ -3572,7 +3580,7 @@
       <c r="M98" s="21"/>
       <c r="N98" s="21"/>
     </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="22" t="s">
         <v>49</v>
@@ -3598,7 +3606,7 @@
       <c r="M99" s="21"/>
       <c r="N99" s="21"/>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="13" t="s">
         <v>22</v>
@@ -3623,7 +3631,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
     </row>
-    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="13" t="s">
         <v>23</v>
@@ -3648,7 +3656,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="22" t="s">
         <v>51</v>
@@ -3674,7 +3682,7 @@
       <c r="M102" s="21"/>
       <c r="N102" s="21"/>
     </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="22" t="s">
         <v>25</v>
@@ -3702,7 +3710,7 @@
       <c r="M103" s="21"/>
       <c r="N103" s="21"/>
     </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="22" t="s">
         <v>44</v>
@@ -3722,7 +3730,7 @@
       <c r="M104" s="21"/>
       <c r="N104" s="21"/>
     </row>
-    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="22"/>
       <c r="C105" s="14"/>
@@ -3737,7 +3745,7 @@
       <c r="M105" s="21"/>
       <c r="N105" s="21"/>
     </row>
-    <row r="106" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>14</v>
       </c>
@@ -3756,7 +3764,7 @@
       <c r="M106" s="21"/>
       <c r="N106" s="21"/>
     </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="22" t="s">
         <v>49</v>
@@ -3781,7 +3789,7 @@
       <c r="M107" s="21"/>
       <c r="N107" s="21"/>
     </row>
-    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="13" t="s">
         <v>22</v>
@@ -3806,7 +3814,7 @@
       <c r="M108" s="21"/>
       <c r="N108" s="21"/>
     </row>
-    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="13" t="s">
         <v>23</v>
@@ -3831,7 +3839,7 @@
       <c r="M109" s="21"/>
       <c r="N109" s="21"/>
     </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="22" t="s">
         <v>51</v>
@@ -3857,7 +3865,7 @@
       <c r="M110" s="21"/>
       <c r="N110" s="21"/>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="22" t="s">
         <v>25</v>
@@ -3885,7 +3893,7 @@
       <c r="M111" s="21"/>
       <c r="N111" s="21"/>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="22" t="s">
         <v>44</v>
@@ -3905,7 +3913,7 @@
       <c r="M112" s="21"/>
       <c r="N112" s="21"/>
     </row>
-    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="22"/>
       <c r="C113" s="14"/>
@@ -3920,7 +3928,7 @@
       <c r="M113" s="21"/>
       <c r="N113" s="21"/>
     </row>
-    <row r="114" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>15</v>
       </c>
@@ -3939,7 +3947,7 @@
       <c r="M114" s="21"/>
       <c r="N114" s="21"/>
     </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="22" t="s">
         <v>49</v>
@@ -3965,7 +3973,7 @@
       <c r="M115" s="21"/>
       <c r="N115" s="21"/>
     </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="22" t="s">
         <v>51</v>
@@ -3991,7 +3999,7 @@
       <c r="M116" s="21"/>
       <c r="N116" s="21"/>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="22" t="s">
         <v>25</v>
@@ -4019,7 +4027,7 @@
       <c r="M117" s="21"/>
       <c r="N117" s="21"/>
     </row>
-    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="22" t="s">
         <v>44</v>
@@ -4039,7 +4047,7 @@
       <c r="M118" s="21"/>
       <c r="N118" s="21"/>
     </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="30"/>
       <c r="C119" s="14"/>
@@ -4054,7 +4062,7 @@
       <c r="M119" s="21"/>
       <c r="N119" s="21"/>
     </row>
-    <row r="120" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>16</v>
       </c>
@@ -4073,7 +4081,7 @@
       <c r="M120" s="21"/>
       <c r="N120" s="21"/>
     </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="22" t="s">
         <v>49</v>
@@ -4099,7 +4107,7 @@
       <c r="M121" s="21"/>
       <c r="N121" s="21"/>
     </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="22" t="s">
         <v>51</v>
@@ -4125,7 +4133,7 @@
       <c r="M122" s="21"/>
       <c r="N122" s="21"/>
     </row>
-    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="22" t="s">
         <v>25</v>
@@ -4153,7 +4161,7 @@
       <c r="M123" s="21"/>
       <c r="N123" s="21"/>
     </row>
-    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="22" t="s">
         <v>44</v>
@@ -4173,7 +4181,7 @@
       <c r="M124" s="21"/>
       <c r="N124" s="21"/>
     </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="22"/>
       <c r="C125" s="14"/>
@@ -4188,7 +4196,7 @@
       <c r="M125" s="21"/>
       <c r="N125" s="21"/>
     </row>
-    <row r="126" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>17</v>
       </c>
@@ -4207,7 +4215,7 @@
       <c r="M126" s="21"/>
       <c r="N126" s="21"/>
     </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="22" t="s">
         <v>49</v>
@@ -4233,7 +4241,7 @@
       <c r="M127" s="21"/>
       <c r="N127" s="21"/>
     </row>
-    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="22" t="s">
         <v>51</v>
@@ -4259,7 +4267,7 @@
       <c r="M128" s="21"/>
       <c r="N128" s="21"/>
     </row>
-    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="22" t="s">
         <v>25</v>
@@ -4287,7 +4295,7 @@
       <c r="M129" s="21"/>
       <c r="N129" s="21"/>
     </row>
-    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="22" t="s">
         <v>44</v>
@@ -4307,7 +4315,7 @@
       <c r="M130" s="21"/>
       <c r="N130" s="21"/>
     </row>
-    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="22"/>
       <c r="C131" s="14"/>
@@ -4322,7 +4330,7 @@
       <c r="M131" s="21"/>
       <c r="N131" s="21"/>
     </row>
-    <row r="132" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>18</v>
       </c>
@@ -4341,7 +4349,7 @@
       <c r="M132" s="21"/>
       <c r="N132" s="21"/>
     </row>
-    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
       <c r="B133" s="22" t="s">
         <v>49</v>
@@ -4367,7 +4375,7 @@
       <c r="M133" s="21"/>
       <c r="N133" s="21"/>
     </row>
-    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
       <c r="B134" s="22" t="s">
         <v>51</v>
@@ -4393,7 +4401,7 @@
       <c r="M134" s="21"/>
       <c r="N134" s="21"/>
     </row>
-    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
       <c r="B135" s="22" t="s">
         <v>25</v>
@@ -4421,7 +4429,7 @@
       <c r="M135" s="21"/>
       <c r="N135" s="21"/>
     </row>
-    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="22" t="s">
         <v>44</v>
@@ -4441,7 +4449,7 @@
       <c r="M136" s="21"/>
       <c r="N136" s="21"/>
     </row>
-    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="B137" s="22"/>
       <c r="C137" s="14"/>
@@ -4456,7 +4464,7 @@
       <c r="M137" s="21"/>
       <c r="N137" s="21"/>
     </row>
-    <row r="138" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>19</v>
       </c>
@@ -4475,7 +4483,7 @@
       <c r="M138" s="21"/>
       <c r="N138" s="21"/>
     </row>
-    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="B139" s="22" t="s">
         <v>49</v>
@@ -4501,7 +4509,7 @@
       <c r="M139" s="21"/>
       <c r="N139" s="21"/>
     </row>
-    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
       <c r="B140" s="22" t="s">
         <v>51</v>
@@ -4527,7 +4535,7 @@
       <c r="M140" s="21"/>
       <c r="N140" s="21"/>
     </row>
-    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
       <c r="B141" s="22" t="s">
         <v>25</v>
@@ -4555,7 +4563,7 @@
       <c r="M141" s="21"/>
       <c r="N141" s="21"/>
     </row>
-    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="22" t="s">
         <v>44</v>
@@ -4575,7 +4583,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="21"/>
     </row>
-    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
       <c r="B143" s="22"/>
       <c r="C143" s="14"/>
@@ -4590,7 +4598,7 @@
       <c r="M143" s="21"/>
       <c r="N143" s="21"/>
     </row>
-    <row r="144" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>20</v>
       </c>
@@ -4609,7 +4617,7 @@
       <c r="M144" s="21"/>
       <c r="N144" s="21"/>
     </row>
-    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="22" t="s">
         <v>49</v>
@@ -4635,7 +4643,7 @@
       <c r="M145" s="21"/>
       <c r="N145" s="21"/>
     </row>
-    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="22" t="s">
         <v>51</v>
@@ -4661,7 +4669,7 @@
       <c r="M146" s="21"/>
       <c r="N146" s="21"/>
     </row>
-    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
       <c r="B147" s="22" t="s">
         <v>25</v>
@@ -4689,7 +4697,7 @@
       <c r="M147" s="21"/>
       <c r="N147" s="21"/>
     </row>
-    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
       <c r="B148" s="22" t="s">
         <v>44</v>
@@ -4709,7 +4717,7 @@
       <c r="M148" s="21"/>
       <c r="N148" s="21"/>
     </row>
-    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
       <c r="B149" s="22"/>
       <c r="C149" s="14"/>
@@ -4724,7 +4732,7 @@
       <c r="M149" s="21"/>
       <c r="N149" s="21"/>
     </row>
-    <row r="150" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25">
         <v>21</v>
       </c>
@@ -4741,7 +4749,7 @@
       <c r="J150" s="39"/>
       <c r="K150" s="30"/>
     </row>
-    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="22" t="s">
         <v>79</v>
@@ -4767,7 +4775,7 @@
       <c r="J151" s="39"/>
       <c r="K151" s="30"/>
     </row>
-    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="22"/>
       <c r="C152" s="26">
@@ -4791,7 +4799,7 @@
       <c r="J152" s="39"/>
       <c r="K152" s="30"/>
     </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="22" t="s">
         <v>25</v>
@@ -4817,7 +4825,7 @@
       </c>
       <c r="K153" s="30"/>
     </row>
-    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="22" t="s">
         <v>44</v>
@@ -4837,7 +4845,7 @@
       <c r="M154" s="21"/>
       <c r="N154" s="21"/>
     </row>
-    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="22"/>
       <c r="C155" s="26"/>
@@ -4850,7 +4858,7 @@
       <c r="J155" s="29"/>
       <c r="K155" s="30"/>
     </row>
-    <row r="156" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="47">
         <v>22</v>
       </c>
@@ -4867,7 +4875,7 @@
       <c r="J156" s="51"/>
       <c r="K156" s="52"/>
     </row>
-    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="47"/>
       <c r="B157" s="48" t="s">
         <v>81</v>
@@ -4892,7 +4900,7 @@
       <c r="J157" s="51"/>
       <c r="K157" s="52"/>
     </row>
-    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="47"/>
       <c r="B158" s="48" t="s">
         <v>82</v>
@@ -4916,7 +4924,7 @@
       <c r="J158" s="51"/>
       <c r="K158" s="52"/>
     </row>
-    <row r="159" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="47"/>
       <c r="B159" s="48" t="s">
         <v>25</v>
@@ -4942,7 +4950,7 @@
       </c>
       <c r="K159" s="52"/>
     </row>
-    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="22" t="s">
         <v>44</v>
@@ -4962,7 +4970,7 @@
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
     </row>
-    <row r="161" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="22"/>
       <c r="C161" s="14"/>
@@ -4977,7 +4985,7 @@
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
     </row>
-    <row r="162" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="25">
         <v>23</v>
       </c>
@@ -4994,7 +5002,7 @@
       <c r="J162" s="39"/>
       <c r="K162" s="30"/>
     </row>
-    <row r="163" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="22" t="s">
         <v>84</v>
@@ -5024,7 +5032,7 @@
       <c r="J163" s="39"/>
       <c r="K163" s="30"/>
     </row>
-    <row r="164" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="30"/>
       <c r="C164" s="26">
@@ -5052,7 +5060,7 @@
       <c r="J164" s="39"/>
       <c r="K164" s="30"/>
     </row>
-    <row r="165" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25"/>
       <c r="B165" s="22"/>
       <c r="C165" s="26">
@@ -5080,7 +5088,7 @@
       <c r="J165" s="39"/>
       <c r="K165" s="30"/>
     </row>
-    <row r="166" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25"/>
       <c r="B166" s="22"/>
       <c r="C166" s="26">
@@ -5108,7 +5116,7 @@
       <c r="J166" s="39"/>
       <c r="K166" s="30"/>
     </row>
-    <row r="167" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="22"/>
       <c r="C167" s="26">
@@ -5136,7 +5144,7 @@
       <c r="J167" s="39"/>
       <c r="K167" s="30"/>
     </row>
-    <row r="168" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="22"/>
       <c r="C168" s="26">
@@ -5164,7 +5172,7 @@
       <c r="J168" s="39"/>
       <c r="K168" s="30"/>
     </row>
-    <row r="169" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="22"/>
       <c r="C169" s="26">
@@ -5192,7 +5200,7 @@
       <c r="J169" s="39"/>
       <c r="K169" s="30"/>
     </row>
-    <row r="170" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25"/>
       <c r="B170" s="22" t="s">
         <v>25</v>
@@ -5218,7 +5226,7 @@
       </c>
       <c r="K170" s="30"/>
     </row>
-    <row r="171" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="22" t="s">
         <v>85</v>
@@ -5237,7 +5245,7 @@
       <c r="K171" s="30"/>
       <c r="M171" s="58"/>
     </row>
-    <row r="172" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="22"/>
       <c r="C172" s="26"/>
@@ -5251,7 +5259,7 @@
       <c r="K172" s="30"/>
       <c r="M172" s="58"/>
     </row>
-    <row r="173" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="47">
         <v>23</v>
       </c>
@@ -5268,7 +5276,7 @@
       <c r="J173" s="57"/>
       <c r="K173" s="52"/>
     </row>
-    <row r="174" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="22" t="s">
         <v>84</v>
@@ -5298,7 +5306,7 @@
       <c r="J174" s="39"/>
       <c r="K174" s="30"/>
     </row>
-    <row r="175" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="22"/>
       <c r="C175" s="26">
@@ -5326,7 +5334,7 @@
       <c r="J175" s="39"/>
       <c r="K175" s="30"/>
     </row>
-    <row r="176" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="22"/>
       <c r="C176" s="26">
@@ -5354,7 +5362,7 @@
       <c r="J176" s="39"/>
       <c r="K176" s="30"/>
     </row>
-    <row r="177" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="22" t="s">
         <v>30</v>
@@ -5381,7 +5389,7 @@
       <c r="J177" s="39"/>
       <c r="K177" s="30"/>
     </row>
-    <row r="178" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="22" t="s">
         <v>25</v>
@@ -5407,7 +5415,7 @@
       </c>
       <c r="K178" s="30"/>
     </row>
-    <row r="179" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25"/>
       <c r="B179" s="22" t="s">
         <v>85</v>
@@ -5426,7 +5434,7 @@
       <c r="K179" s="30"/>
       <c r="M179" s="58"/>
     </row>
-    <row r="180" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25"/>
       <c r="B180" s="22"/>
       <c r="C180" s="26"/>
@@ -5440,11 +5448,11 @@
       <c r="K180" s="30"/>
       <c r="M180" s="58"/>
     </row>
-    <row r="181" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>25</v>
       </c>
-      <c r="B181" s="84" t="s">
+      <c r="B181" s="72" t="s">
         <v>87</v>
       </c>
       <c r="C181" s="14"/>
@@ -5464,7 +5472,7 @@
       <c r="R181" s="21"/>
       <c r="S181" s="21"/>
     </row>
-    <row r="182" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="13" t="str">
         <f>B46</f>
@@ -5492,7 +5500,7 @@
       <c r="J182" s="20"/>
       <c r="K182" s="16"/>
       <c r="M182" s="21"/>
-      <c r="N182" s="85"/>
+      <c r="N182" s="73"/>
       <c r="O182" s="1">
         <v>173798.37571991887</v>
       </c>
@@ -5501,7 +5509,7 @@
       <c r="R182" s="21"/>
       <c r="S182" s="21"/>
     </row>
-    <row r="183" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25"/>
       <c r="B183" s="22" t="s">
         <v>25</v>
@@ -5527,7 +5535,7 @@
       </c>
       <c r="K183" s="30"/>
     </row>
-    <row r="184" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="22" t="s">
         <v>85</v>
@@ -5545,7 +5553,7 @@
       </c>
       <c r="K184" s="30"/>
     </row>
-    <row r="185" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="59"/>
       <c r="C185" s="14"/>
@@ -5565,7 +5573,7 @@
       <c r="R185" s="21"/>
       <c r="S185" s="21"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>24</v>
       </c>
@@ -5582,7 +5590,7 @@
       <c r="J186" s="39"/>
       <c r="K186" s="30"/>
     </row>
-    <row r="187" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="22" t="s">
         <v>89</v>
@@ -5602,7 +5610,7 @@
       <c r="J187" s="39"/>
       <c r="K187" s="30"/>
     </row>
-    <row r="188" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="22" t="s">
         <v>25</v>
@@ -5628,7 +5636,7 @@
       </c>
       <c r="K188" s="30"/>
     </row>
-    <row r="189" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
       <c r="B189" s="22" t="s">
         <v>44</v>
@@ -5648,7 +5656,7 @@
       <c r="M189" s="21"/>
       <c r="N189" s="21"/>
     </row>
-    <row r="190" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="22"/>
       <c r="C190" s="26"/>
@@ -5661,7 +5669,7 @@
       <c r="J190" s="29"/>
       <c r="K190" s="30"/>
     </row>
-    <row r="191" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A191" s="25">
         <v>25</v>
       </c>
@@ -5678,7 +5686,7 @@
       <c r="J191" s="39"/>
       <c r="K191" s="30"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="22" t="s">
         <v>92</v>
@@ -5705,7 +5713,7 @@
       <c r="J192" s="39"/>
       <c r="K192" s="30"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="22"/>
       <c r="C193" s="26">
@@ -5730,7 +5738,7 @@
       <c r="J193" s="39"/>
       <c r="K193" s="30"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="22"/>
       <c r="C194" s="26">
@@ -5755,7 +5763,7 @@
       <c r="J194" s="39"/>
       <c r="K194" s="30"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="25"/>
       <c r="B195" s="22" t="s">
         <v>93</v>
@@ -5782,7 +5790,7 @@
       <c r="J195" s="39"/>
       <c r="K195" s="30"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="22"/>
       <c r="C196" s="26">
@@ -5807,7 +5815,7 @@
       <c r="J196" s="39"/>
       <c r="K196" s="30"/>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="22" t="s">
         <v>94</v>
@@ -5835,7 +5843,7 @@
       <c r="J197" s="39"/>
       <c r="K197" s="30"/>
     </row>
-    <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="22" t="s">
         <v>25</v>
@@ -5860,7 +5868,7 @@
       </c>
       <c r="K198" s="30"/>
     </row>
-    <row r="199" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
       <c r="B199" s="22" t="s">
         <v>44</v>
@@ -5880,7 +5888,7 @@
       <c r="M199" s="21"/>
       <c r="N199" s="21"/>
     </row>
-    <row r="200" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25"/>
       <c r="B200" s="22"/>
       <c r="C200" s="26"/>
@@ -5893,7 +5901,7 @@
       <c r="J200" s="39"/>
       <c r="K200" s="30"/>
     </row>
-    <row r="201" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>26</v>
       </c>
@@ -5910,7 +5918,7 @@
       <c r="J201" s="37"/>
       <c r="K201" s="16"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
       <c r="B202" s="43" t="s">
         <v>95</v>
@@ -5935,7 +5943,7 @@
       <c r="J202" s="37"/>
       <c r="K202" s="16"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
       <c r="B203" s="43" t="str">
         <f>B192</f>
@@ -5962,7 +5970,7 @@
       <c r="J203" s="37"/>
       <c r="K203" s="16"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="43"/>
       <c r="C204" s="14">
@@ -5985,7 +5993,7 @@
       <c r="J204" s="37"/>
       <c r="K204" s="16"/>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="43" t="s">
         <v>94</v>
@@ -6012,7 +6020,7 @@
       <c r="J205" s="37"/>
       <c r="K205" s="16"/>
     </row>
-    <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="43" t="s">
         <v>25</v>
@@ -6038,7 +6046,7 @@
       </c>
       <c r="K206" s="34"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
       <c r="B207" s="54"/>
       <c r="C207" s="14"/>
@@ -6051,7 +6059,7 @@
       <c r="J207" s="37"/>
       <c r="K207" s="16"/>
     </row>
-    <row r="208" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="25">
         <v>27</v>
       </c>
@@ -6068,7 +6076,7 @@
       <c r="J208" s="39"/>
       <c r="K208" s="30"/>
     </row>
-    <row r="209" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="25"/>
       <c r="B209" s="22" t="s">
         <v>96</v>
@@ -6094,7 +6102,7 @@
       <c r="J209" s="39"/>
       <c r="K209" s="30"/>
     </row>
-    <row r="210" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="22" t="s">
         <v>94</v>
@@ -6121,7 +6129,7 @@
       <c r="J210" s="39"/>
       <c r="K210" s="30"/>
     </row>
-    <row r="211" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="22" t="s">
         <v>25</v>
@@ -6147,7 +6155,7 @@
       </c>
       <c r="K211" s="30"/>
     </row>
-    <row r="212" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="22" t="s">
         <v>85</v>
@@ -6166,7 +6174,7 @@
       <c r="K212" s="30"/>
       <c r="M212" s="58"/>
     </row>
-    <row r="213" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="22"/>
       <c r="C213" s="26"/>
@@ -6180,7 +6188,7 @@
       <c r="K213" s="30"/>
       <c r="M213" s="58"/>
     </row>
-    <row r="214" spans="1:19" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A214" s="25">
         <v>28</v>
       </c>
@@ -6198,7 +6206,7 @@
       <c r="K214" s="30"/>
       <c r="M214" s="58"/>
     </row>
-    <row r="215" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="25"/>
       <c r="B215" s="22" t="s">
         <v>98</v>
@@ -6224,7 +6232,7 @@
       <c r="J215" s="39"/>
       <c r="K215" s="30"/>
     </row>
-    <row r="216" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="22" t="s">
         <v>25</v>
@@ -6249,7 +6257,7 @@
       </c>
       <c r="K216" s="30"/>
     </row>
-    <row r="217" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="22" t="s">
         <v>85</v>
@@ -6268,7 +6276,7 @@
       <c r="K217" s="30"/>
       <c r="M217" s="58"/>
     </row>
-    <row r="218" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="25"/>
       <c r="B218" s="11"/>
       <c r="C218" s="26"/>
@@ -6282,7 +6290,7 @@
       <c r="K218" s="30"/>
       <c r="M218" s="58"/>
     </row>
-    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="25">
         <v>29</v>
       </c>
@@ -6299,7 +6307,7 @@
       <c r="J219" s="39"/>
       <c r="K219" s="30"/>
     </row>
-    <row r="220" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="22" t="s">
         <v>98</v>
@@ -6325,7 +6333,7 @@
       <c r="J220" s="39"/>
       <c r="K220" s="30"/>
     </row>
-    <row r="221" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="22" t="s">
         <v>25</v>
@@ -6351,7 +6359,7 @@
       </c>
       <c r="K221" s="30"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="25"/>
       <c r="B222" s="24"/>
       <c r="C222" s="26"/>
@@ -6364,11 +6372,11 @@
       <c r="J222" s="39"/>
       <c r="K222" s="30"/>
     </row>
-    <row r="223" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>32</v>
       </c>
-      <c r="B223" s="84" t="s">
+      <c r="B223" s="72" t="s">
         <v>100</v>
       </c>
       <c r="C223" s="14"/>
@@ -6388,7 +6396,7 @@
       <c r="R223" s="21"/>
       <c r="S223" s="21"/>
     </row>
-    <row r="224" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" s="13" t="s">
         <v>101</v>
@@ -6421,7 +6429,7 @@
       <c r="R224" s="21"/>
       <c r="S224" s="21"/>
     </row>
-    <row r="225" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="22" t="s">
         <v>25</v>
@@ -6447,7 +6455,7 @@
       </c>
       <c r="K225" s="30"/>
     </row>
-    <row r="226" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="25"/>
       <c r="B226" s="22" t="s">
         <v>85</v>
@@ -6465,7 +6473,7 @@
       </c>
       <c r="K226" s="30"/>
     </row>
-    <row r="227" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="25"/>
       <c r="B227" s="22"/>
       <c r="C227" s="26"/>
@@ -6478,11 +6486,11 @@
       <c r="J227" s="39"/>
       <c r="K227" s="30"/>
     </row>
-    <row r="228" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>33</v>
       </c>
-      <c r="B228" s="84" t="s">
+      <c r="B228" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C228" s="26"/>
@@ -6495,7 +6503,7 @@
       <c r="J228" s="39"/>
       <c r="K228" s="30"/>
     </row>
-    <row r="229" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="13" t="s">
         <v>101</v>
@@ -6526,7 +6534,7 @@
       <c r="R229" s="21"/>
       <c r="S229" s="21"/>
     </row>
-    <row r="230" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="25"/>
       <c r="B230" s="22" t="s">
         <v>25</v>
@@ -6551,7 +6559,7 @@
       </c>
       <c r="K230" s="30"/>
     </row>
-    <row r="231" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="22" t="s">
         <v>85</v>
@@ -6569,7 +6577,7 @@
       </c>
       <c r="K231" s="30"/>
     </row>
-    <row r="232" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="22"/>
       <c r="C232" s="26"/>
@@ -6582,11 +6590,11 @@
       <c r="J232" s="39"/>
       <c r="K232" s="30"/>
     </row>
-    <row r="233" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="25">
         <v>34</v>
       </c>
-      <c r="B233" s="84" t="s">
+      <c r="B233" s="72" t="s">
         <v>103</v>
       </c>
       <c r="C233" s="26"/>
@@ -6599,7 +6607,7 @@
       <c r="J233" s="39"/>
       <c r="K233" s="30"/>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="22" t="s">
         <v>104</v>
@@ -6619,7 +6627,7 @@
       <c r="J234" s="39"/>
       <c r="K234" s="30"/>
     </row>
-    <row r="235" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="25"/>
       <c r="B235" s="22" t="s">
         <v>25</v>
@@ -6644,7 +6652,7 @@
       </c>
       <c r="K235" s="30"/>
     </row>
-    <row r="236" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="25"/>
       <c r="B236" s="22" t="s">
         <v>85</v>
@@ -6662,7 +6670,7 @@
       </c>
       <c r="K236" s="30"/>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="24"/>
       <c r="C237" s="26"/>
@@ -6675,11 +6683,11 @@
       <c r="J237" s="39"/>
       <c r="K237" s="30"/>
     </row>
-    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>30</v>
       </c>
-      <c r="B238" s="84" t="s">
+      <c r="B238" s="72" t="s">
         <v>118</v>
       </c>
       <c r="C238" s="14"/>
@@ -6699,7 +6707,7 @@
       <c r="R238" s="21"/>
       <c r="S238" s="21"/>
     </row>
-    <row r="239" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
       <c r="B239" s="13" t="s">
         <v>101</v>
@@ -6732,7 +6740,7 @@
       <c r="R239" s="21"/>
       <c r="S239" s="21"/>
     </row>
-    <row r="240" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="25"/>
       <c r="B240" s="22" t="s">
         <v>25</v>
@@ -6758,7 +6766,7 @@
       </c>
       <c r="K240" s="30"/>
     </row>
-    <row r="241" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="25"/>
       <c r="B241" s="22" t="s">
         <v>85</v>
@@ -6776,7 +6784,7 @@
       </c>
       <c r="K241" s="30"/>
     </row>
-    <row r="242" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="25"/>
       <c r="B242" s="22"/>
       <c r="C242" s="26"/>
@@ -6789,7 +6797,7 @@
       <c r="J242" s="39"/>
       <c r="K242" s="30"/>
     </row>
-    <row r="243" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="25">
         <v>31</v>
       </c>
@@ -6806,7 +6814,7 @@
       <c r="J243" s="39"/>
       <c r="K243" s="30"/>
     </row>
-    <row r="244" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" s="13" t="s">
         <v>101</v>
@@ -6836,7 +6844,7 @@
       <c r="R244" s="21"/>
       <c r="S244" s="21"/>
     </row>
-    <row r="245" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="25"/>
       <c r="B245" s="22" t="s">
         <v>25</v>
@@ -6861,7 +6869,7 @@
       </c>
       <c r="K245" s="30"/>
     </row>
-    <row r="246" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="25"/>
       <c r="B246" s="22"/>
       <c r="C246" s="26"/>
@@ -6874,7 +6882,7 @@
       <c r="J246" s="39"/>
       <c r="K246" s="30"/>
     </row>
-    <row r="247" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A247" s="25">
         <v>32</v>
       </c>
@@ -6891,7 +6899,7 @@
       <c r="J247" s="39"/>
       <c r="K247" s="30"/>
     </row>
-    <row r="248" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
       <c r="B248" s="13" t="s">
         <v>101</v>
@@ -6918,7 +6926,7 @@
       <c r="R248" s="21"/>
       <c r="S248" s="21"/>
     </row>
-    <row r="249" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="25"/>
       <c r="B249" s="22" t="s">
         <v>25</v>
@@ -6944,7 +6952,7 @@
       </c>
       <c r="K249" s="30"/>
     </row>
-    <row r="250" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="25"/>
       <c r="B250" s="22" t="s">
         <v>85</v>
@@ -6962,7 +6970,7 @@
       </c>
       <c r="K250" s="30"/>
     </row>
-    <row r="251" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="25"/>
       <c r="B251" s="22"/>
       <c r="C251" s="26"/>
@@ -6975,7 +6983,7 @@
       <c r="J251" s="39"/>
       <c r="K251" s="30"/>
     </row>
-    <row r="252" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="25">
         <v>33</v>
       </c>
@@ -6992,7 +7000,7 @@
       <c r="J252" s="39"/>
       <c r="K252" s="30"/>
     </row>
-    <row r="253" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="B253" s="13" t="s">
         <v>123</v>
@@ -7019,7 +7027,7 @@
       <c r="R253" s="21"/>
       <c r="S253" s="21"/>
     </row>
-    <row r="254" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="25"/>
       <c r="B254" s="22" t="s">
         <v>25</v>
@@ -7045,7 +7053,7 @@
       </c>
       <c r="K254" s="30"/>
     </row>
-    <row r="255" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="25"/>
       <c r="B255" s="22" t="s">
         <v>85</v>
@@ -7063,7 +7071,7 @@
       </c>
       <c r="K255" s="30"/>
     </row>
-    <row r="256" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="25"/>
       <c r="B256" s="22"/>
       <c r="C256" s="26"/>
@@ -7076,7 +7084,7 @@
       <c r="J256" s="39"/>
       <c r="K256" s="30"/>
     </row>
-    <row r="257" spans="1:14" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" s="25">
         <v>34</v>
       </c>
@@ -7101,7 +7109,7 @@
       <c r="J257" s="25"/>
       <c r="K257" s="34"/>
     </row>
-    <row r="258" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="25"/>
       <c r="B258" s="22" t="s">
         <v>25</v>
@@ -7127,7 +7135,7 @@
       </c>
       <c r="K258" s="30"/>
     </row>
-    <row r="259" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="25"/>
       <c r="B259" s="22" t="s">
         <v>85</v>
@@ -7146,7 +7154,7 @@
       <c r="K259" s="30"/>
       <c r="M259" s="58"/>
     </row>
-    <row r="260" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="25"/>
       <c r="B260" s="22"/>
       <c r="C260" s="26"/>
@@ -7159,7 +7167,7 @@
       <c r="J260" s="39"/>
       <c r="K260" s="30"/>
     </row>
-    <row r="261" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>35</v>
       </c>
@@ -7188,7 +7196,7 @@
       </c>
       <c r="K261" s="34"/>
     </row>
-    <row r="262" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="25"/>
       <c r="B262" s="41"/>
       <c r="C262" s="26"/>
@@ -7201,7 +7209,7 @@
       <c r="J262" s="39"/>
       <c r="K262" s="30"/>
     </row>
-    <row r="263" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>36</v>
       </c>
@@ -7232,7 +7240,7 @@
       <c r="M263" s="21"/>
       <c r="N263" s="21"/>
     </row>
-    <row r="264" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="B264" s="59"/>
       <c r="C264" s="14"/>
@@ -7247,7 +7255,7 @@
       <c r="M264" s="21"/>
       <c r="N264" s="21"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="25"/>
       <c r="B265" s="62" t="s">
         <v>109</v>
@@ -7265,15 +7273,15 @@
       </c>
       <c r="K265" s="30"/>
     </row>
-    <row r="267" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="72">
+      <c r="C267" s="81">
         <f>J265</f>
         <v>1886794.504041455</v>
       </c>
-      <c r="D267" s="73"/>
+      <c r="D267" s="82"/>
       <c r="E267" s="33">
         <v>100</v>
       </c>
@@ -7284,79 +7292,72 @@
       <c r="J267" s="68"/>
       <c r="K267" s="69"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B268" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="76">
+      <c r="C268" s="84">
         <v>2250000</v>
       </c>
-      <c r="D268" s="77"/>
+      <c r="D268" s="85"/>
       <c r="E268" s="33"/>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C269" s="76">
+      <c r="C269" s="84">
         <f>C268-C271-C272</f>
         <v>2137500</v>
       </c>
-      <c r="D269" s="77"/>
+      <c r="D269" s="85"/>
       <c r="E269" s="33">
         <f>C269/C267*100</f>
         <v>113.28737684053785</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B270" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="78">
+      <c r="C270" s="86">
         <f>C267-C269</f>
         <v>-250705.49595854501</v>
       </c>
-      <c r="D270" s="78"/>
+      <c r="D270" s="86"/>
       <c r="E270" s="33">
         <f>100-E269</f>
         <v>-13.287376840537846</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B271" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="72">
+      <c r="C271" s="81">
         <f>C268*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D271" s="73"/>
+      <c r="D271" s="82"/>
       <c r="E271" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B272" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C272" s="72">
+      <c r="C272" s="81">
         <f>C268*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D272" s="73"/>
+      <c r="D272" s="82"/>
       <c r="E272" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C271:D271"/>
     <mergeCell ref="C272:D272"/>
     <mergeCell ref="A7:F7"/>
@@ -7365,6 +7366,13 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="C270:D270"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7382,136 +7390,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O239" sqref="O239"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="71" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="71" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="H6" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-    </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -7563,7 +7571,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>21</v>
@@ -7591,7 +7599,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>22</v>
@@ -7618,7 +7626,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>23</v>
@@ -7646,7 +7654,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>24</v>
@@ -7674,7 +7682,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="22" t="s">
         <v>25</v>
@@ -7702,7 +7710,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="22"/>
       <c r="C15" s="14"/>
@@ -7717,7 +7725,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2</v>
       </c>
@@ -7736,7 +7744,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>28</v>
@@ -7767,7 +7775,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14">
@@ -7796,7 +7804,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="22" t="s">
         <v>25</v>
@@ -7824,7 +7832,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="22"/>
       <c r="C20" s="14"/>
@@ -7839,7 +7847,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>3</v>
       </c>
@@ -7858,7 +7866,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="22" t="s">
         <v>30</v>
@@ -7887,7 +7895,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="22" t="s">
         <v>25</v>
@@ -7913,7 +7921,7 @@
       </c>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="22"/>
       <c r="C24" s="26"/>
@@ -7926,7 +7934,7 @@
       <c r="J24" s="29"/>
       <c r="K24" s="30"/>
     </row>
-    <row r="25" spans="1:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>4</v>
       </c>
@@ -7943,7 +7951,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="34"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
       <c r="B26" s="35" t="s">
         <v>32</v>
@@ -7970,7 +7978,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
       <c r="B27" s="36" t="s">
         <v>25</v>
@@ -7996,7 +8004,7 @@
       </c>
       <c r="K27" s="34"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
       <c r="B28" s="34"/>
       <c r="C28" s="32"/>
@@ -8009,7 +8017,7 @@
       <c r="J28" s="33"/>
       <c r="K28" s="34"/>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>5</v>
       </c>
@@ -8026,7 +8034,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
       <c r="B30" s="35" t="s">
         <v>32</v>
@@ -8055,7 +8063,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
       <c r="B31" s="36" t="s">
         <v>25</v>
@@ -8081,7 +8089,7 @@
       </c>
       <c r="K31" s="34"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="36"/>
       <c r="C32" s="32"/>
@@ -8094,7 +8102,7 @@
       <c r="J32" s="39"/>
       <c r="K32" s="34"/>
     </row>
-    <row r="33" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>6</v>
       </c>
@@ -8121,7 +8129,7 @@
       <c r="J33" s="37"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="43" t="s">
         <v>32</v>
@@ -8151,7 +8159,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="43" t="s">
         <v>40</v>
@@ -8181,7 +8189,7 @@
       <c r="J35" s="37"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="43" t="s">
         <v>41</v>
@@ -8211,7 +8219,7 @@
       <c r="J36" s="37"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="43" t="s">
         <v>42</v>
@@ -8241,7 +8249,7 @@
       <c r="J37" s="37"/>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="43"/>
       <c r="C38" s="14">
@@ -8269,7 +8277,7 @@
       <c r="J38" s="37"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
       <c r="B39" s="43" t="s">
         <v>25</v>
@@ -8295,7 +8303,7 @@
       </c>
       <c r="K39" s="34"/>
     </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="43"/>
       <c r="C40" s="14"/>
@@ -8308,7 +8316,7 @@
       <c r="J40" s="37"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>7</v>
       </c>
@@ -8325,7 +8333,7 @@
       <c r="J41" s="37"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="B42" s="35" t="s">
         <v>40</v>
@@ -8352,7 +8360,7 @@
       <c r="J42" s="33"/>
       <c r="K42" s="34"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="35" t="s">
         <v>46</v>
@@ -8381,7 +8389,7 @@
       <c r="J43" s="33"/>
       <c r="K43" s="34"/>
     </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="43" t="s">
         <v>25</v>
@@ -8407,7 +8415,7 @@
       </c>
       <c r="K44" s="34"/>
     </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="43"/>
       <c r="C45" s="14"/>
@@ -8420,7 +8428,7 @@
       <c r="J45" s="37"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>8</v>
       </c>
@@ -8441,7 +8449,7 @@
         <v>20.802200000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="22" t="s">
         <v>49</v>
@@ -8469,7 +8477,7 @@
       <c r="J47" s="39"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="B48" s="22"/>
       <c r="C48" s="26">
@@ -8494,7 +8502,7 @@
       <c r="J48" s="39"/>
       <c r="K48" s="30"/>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="22" t="s">
         <v>25</v>
@@ -8520,7 +8528,7 @@
       </c>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="22"/>
       <c r="C50" s="26"/>
@@ -8533,7 +8541,7 @@
       <c r="J50" s="29"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>9</v>
       </c>
@@ -8550,7 +8558,7 @@
       <c r="J51" s="29"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="22" t="s">
         <v>117</v>
@@ -8579,7 +8587,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="22" t="s">
         <v>52</v>
@@ -8608,7 +8616,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="B54" s="22" t="s">
         <v>25</v>
@@ -8634,7 +8642,7 @@
       </c>
       <c r="K54" s="30"/>
     </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="B55" s="22"/>
       <c r="C55" s="26"/>
@@ -8647,7 +8655,7 @@
       <c r="J55" s="29"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>10</v>
       </c>
@@ -8665,7 +8673,7 @@
       <c r="K56" s="16"/>
       <c r="M56" s="21"/>
     </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="13" t="s">
         <v>54</v>
@@ -8693,7 +8701,7 @@
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="13" t="s">
         <v>22</v>
@@ -8721,7 +8729,7 @@
       <c r="M58" s="21"/>
       <c r="N58" s="21"/>
     </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="13" t="s">
         <v>23</v>
@@ -8749,7 +8757,7 @@
       <c r="M59" s="21"/>
       <c r="N59" s="21"/>
     </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
         <v>55</v>
@@ -8777,7 +8785,7 @@
       <c r="M60" s="21"/>
       <c r="N60" s="21"/>
     </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
         <v>56</v>
@@ -8805,7 +8813,7 @@
       <c r="M61" s="21"/>
       <c r="N61" s="21"/>
     </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14">
@@ -8831,7 +8839,7 @@
       <c r="M62" s="21"/>
       <c r="N62" s="21"/>
     </row>
-    <row r="63" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="48" t="s">
         <v>57</v>
@@ -8857,7 +8865,7 @@
       <c r="J63" s="51"/>
       <c r="K63" s="52"/>
     </row>
-    <row r="64" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="48" t="s">
         <v>58</v>
@@ -8883,7 +8891,7 @@
       <c r="J64" s="51"/>
       <c r="K64" s="52"/>
     </row>
-    <row r="65" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="48" t="s">
         <v>59</v>
@@ -8910,7 +8918,7 @@
       <c r="J65" s="51"/>
       <c r="K65" s="52"/>
     </row>
-    <row r="66" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="48" t="s">
         <v>60</v>
@@ -8936,7 +8944,7 @@
       <c r="J66" s="51"/>
       <c r="K66" s="52"/>
     </row>
-    <row r="67" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="48"/>
       <c r="C67" s="49">
@@ -8960,7 +8968,7 @@
       <c r="J67" s="51"/>
       <c r="K67" s="52"/>
     </row>
-    <row r="68" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47"/>
       <c r="B68" s="48" t="s">
         <v>22</v>
@@ -8986,7 +8994,7 @@
       <c r="J68" s="51"/>
       <c r="K68" s="52"/>
     </row>
-    <row r="69" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="48" t="s">
         <v>61</v>
@@ -9012,7 +9020,7 @@
       <c r="J69" s="51"/>
       <c r="K69" s="52"/>
     </row>
-    <row r="70" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="48"/>
       <c r="C70" s="49">
@@ -9036,7 +9044,7 @@
       <c r="J70" s="51"/>
       <c r="K70" s="52"/>
     </row>
-    <row r="71" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="48" t="s">
         <v>62</v>
@@ -9061,7 +9069,7 @@
       <c r="J71" s="51"/>
       <c r="K71" s="52"/>
     </row>
-    <row r="72" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="48"/>
       <c r="C72" s="49">
@@ -9083,7 +9091,7 @@
       <c r="J72" s="51"/>
       <c r="K72" s="52"/>
     </row>
-    <row r="73" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="48" t="s">
         <v>63</v>
@@ -9109,7 +9117,7 @@
       <c r="J73" s="51"/>
       <c r="K73" s="52"/>
     </row>
-    <row r="74" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="48" t="s">
         <v>64</v>
@@ -9136,7 +9144,7 @@
       <c r="J74" s="51"/>
       <c r="K74" s="52"/>
     </row>
-    <row r="75" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="48" t="s">
         <v>65</v>
@@ -9163,7 +9171,7 @@
       <c r="J75" s="51"/>
       <c r="K75" s="52"/>
     </row>
-    <row r="76" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="48" t="s">
         <v>66</v>
@@ -9189,7 +9197,7 @@
       <c r="J76" s="51"/>
       <c r="K76" s="52"/>
     </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
       <c r="B77" s="22" t="s">
         <v>25</v>
@@ -9217,7 +9225,7 @@
       <c r="M77" s="21"/>
       <c r="N77" s="21"/>
     </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="22"/>
       <c r="C78" s="14"/>
@@ -9232,7 +9240,7 @@
       <c r="M78" s="21"/>
       <c r="N78" s="21"/>
     </row>
-    <row r="79" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>11</v>
       </c>
@@ -9251,7 +9259,7 @@
       <c r="M79" s="21"/>
       <c r="N79" s="21"/>
     </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
       <c r="B80" s="22" t="s">
         <v>49</v>
@@ -9277,7 +9285,7 @@
       <c r="M80" s="21"/>
       <c r="N80" s="21"/>
     </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="22" t="s">
         <v>51</v>
@@ -9302,7 +9310,7 @@
       <c r="M81" s="21"/>
       <c r="N81" s="21"/>
     </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="22" t="s">
         <v>25</v>
@@ -9330,7 +9338,7 @@
       <c r="M82" s="21"/>
       <c r="N82" s="21"/>
     </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="22"/>
       <c r="C83" s="14"/>
@@ -9345,18 +9353,18 @@
       <c r="M83" s="21"/>
       <c r="N83" s="21"/>
     </row>
-    <row r="84" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>12</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="89" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="15"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
-      <c r="G84" s="19"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="18"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
@@ -9364,7 +9372,7 @@
       <c r="M84" s="21"/>
       <c r="N84" s="21"/>
     </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="22" t="s">
         <v>49</v>
@@ -9390,7 +9398,7 @@
       <c r="M85" s="21"/>
       <c r="N85" s="21"/>
     </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="22" t="s">
         <v>51</v>
@@ -9415,7 +9423,7 @@
       <c r="M86" s="21"/>
       <c r="N86" s="21"/>
     </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="22" t="s">
         <v>25</v>
@@ -9443,7 +9451,7 @@
       <c r="M87" s="21"/>
       <c r="N87" s="21"/>
     </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="22"/>
       <c r="C88" s="14"/>
@@ -9458,7 +9466,7 @@
       <c r="M88" s="21"/>
       <c r="N88" s="21"/>
     </row>
-    <row r="89" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>13</v>
       </c>
@@ -9477,7 +9485,7 @@
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
     </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="22" t="s">
         <v>49</v>
@@ -9503,7 +9511,7 @@
       <c r="M90" s="21"/>
       <c r="N90" s="21"/>
     </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="13" t="s">
         <v>22</v>
@@ -9528,7 +9536,7 @@
       <c r="M91" s="21"/>
       <c r="N91" s="21"/>
     </row>
-    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="13" t="s">
         <v>23</v>
@@ -9553,7 +9561,7 @@
       <c r="M92" s="21"/>
       <c r="N92" s="21"/>
     </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="22" t="s">
         <v>51</v>
@@ -9579,7 +9587,7 @@
       <c r="M93" s="21"/>
       <c r="N93" s="21"/>
     </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="22" t="s">
         <v>25</v>
@@ -9607,7 +9615,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="21"/>
     </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="22"/>
       <c r="C95" s="14"/>
@@ -9622,7 +9630,7 @@
       <c r="M95" s="21"/>
       <c r="N95" s="21"/>
     </row>
-    <row r="96" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>14</v>
       </c>
@@ -9641,7 +9649,7 @@
       <c r="M96" s="21"/>
       <c r="N96" s="21"/>
     </row>
-    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="22" t="s">
         <v>49</v>
@@ -9666,7 +9674,7 @@
       <c r="M97" s="21"/>
       <c r="N97" s="21"/>
     </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="13" t="s">
         <v>22</v>
@@ -9691,7 +9699,7 @@
       <c r="M98" s="21"/>
       <c r="N98" s="21"/>
     </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="13" t="s">
         <v>23</v>
@@ -9716,7 +9724,7 @@
       <c r="M99" s="21"/>
       <c r="N99" s="21"/>
     </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="22" t="s">
         <v>51</v>
@@ -9742,7 +9750,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="21"/>
     </row>
-    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="22" t="s">
         <v>25</v>
@@ -9770,7 +9778,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="21"/>
     </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="22"/>
       <c r="C102" s="14"/>
@@ -9785,18 +9793,18 @@
       <c r="M102" s="21"/>
       <c r="N102" s="21"/>
     </row>
-    <row r="103" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>15</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" s="89" t="s">
         <v>72</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="15"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
-      <c r="G103" s="19"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="18"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
@@ -9804,7 +9812,7 @@
       <c r="M103" s="21"/>
       <c r="N103" s="21"/>
     </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="22" t="s">
         <v>49</v>
@@ -9830,7 +9838,7 @@
       <c r="M104" s="21"/>
       <c r="N104" s="21"/>
     </row>
-    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="22" t="s">
         <v>51</v>
@@ -9856,7 +9864,7 @@
       <c r="M105" s="21"/>
       <c r="N105" s="21"/>
     </row>
-    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="22" t="s">
         <v>25</v>
@@ -9884,7 +9892,7 @@
       <c r="M106" s="21"/>
       <c r="N106" s="21"/>
     </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="30"/>
       <c r="C107" s="14"/>
@@ -9899,7 +9907,7 @@
       <c r="M107" s="21"/>
       <c r="N107" s="21"/>
     </row>
-    <row r="108" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>16</v>
       </c>
@@ -9918,7 +9926,7 @@
       <c r="M108" s="21"/>
       <c r="N108" s="21"/>
     </row>
-    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="22" t="s">
         <v>49</v>
@@ -9944,7 +9952,7 @@
       <c r="M109" s="21"/>
       <c r="N109" s="21"/>
     </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="22" t="s">
         <v>51</v>
@@ -9970,7 +9978,7 @@
       <c r="M110" s="21"/>
       <c r="N110" s="21"/>
     </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="22" t="s">
         <v>25</v>
@@ -9998,7 +10006,7 @@
       <c r="M111" s="21"/>
       <c r="N111" s="21"/>
     </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="22"/>
       <c r="C112" s="14"/>
@@ -10013,7 +10021,7 @@
       <c r="M112" s="21"/>
       <c r="N112" s="21"/>
     </row>
-    <row r="113" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>17</v>
       </c>
@@ -10032,7 +10040,7 @@
       <c r="M113" s="21"/>
       <c r="N113" s="21"/>
     </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="22" t="s">
         <v>49</v>
@@ -10058,7 +10066,7 @@
       <c r="M114" s="21"/>
       <c r="N114" s="21"/>
     </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="22" t="s">
         <v>51</v>
@@ -10084,7 +10092,7 @@
       <c r="M115" s="21"/>
       <c r="N115" s="21"/>
     </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="22" t="s">
         <v>25</v>
@@ -10112,7 +10120,7 @@
       <c r="M116" s="21"/>
       <c r="N116" s="21"/>
     </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="22"/>
       <c r="C117" s="14"/>
@@ -10127,7 +10135,7 @@
       <c r="M117" s="21"/>
       <c r="N117" s="21"/>
     </row>
-    <row r="118" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>18</v>
       </c>
@@ -10146,7 +10154,7 @@
       <c r="M118" s="21"/>
       <c r="N118" s="21"/>
     </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="22" t="s">
         <v>49</v>
@@ -10172,7 +10180,7 @@
       <c r="M119" s="21"/>
       <c r="N119" s="21"/>
     </row>
-    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="22" t="s">
         <v>51</v>
@@ -10198,7 +10206,7 @@
       <c r="M120" s="21"/>
       <c r="N120" s="21"/>
     </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="22" t="s">
         <v>25</v>
@@ -10226,7 +10234,7 @@
       <c r="M121" s="21"/>
       <c r="N121" s="21"/>
     </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="22"/>
       <c r="C122" s="14"/>
@@ -10241,7 +10249,7 @@
       <c r="M122" s="21"/>
       <c r="N122" s="21"/>
     </row>
-    <row r="123" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>19</v>
       </c>
@@ -10260,7 +10268,7 @@
       <c r="M123" s="21"/>
       <c r="N123" s="21"/>
     </row>
-    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="22" t="s">
         <v>49</v>
@@ -10286,7 +10294,7 @@
       <c r="M124" s="21"/>
       <c r="N124" s="21"/>
     </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="22" t="s">
         <v>51</v>
@@ -10312,7 +10320,7 @@
       <c r="M125" s="21"/>
       <c r="N125" s="21"/>
     </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="22" t="s">
         <v>25</v>
@@ -10340,7 +10348,7 @@
       <c r="M126" s="21"/>
       <c r="N126" s="21"/>
     </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="22"/>
       <c r="C127" s="14"/>
@@ -10355,18 +10363,18 @@
       <c r="M127" s="21"/>
       <c r="N127" s="21"/>
     </row>
-    <row r="128" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>20</v>
       </c>
-      <c r="B128" s="23" t="s">
+      <c r="B128" s="89" t="s">
         <v>77</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="15"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
-      <c r="G128" s="19"/>
+      <c r="G128" s="17"/>
       <c r="H128" s="18"/>
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
@@ -10374,7 +10382,7 @@
       <c r="M128" s="21"/>
       <c r="N128" s="21"/>
     </row>
-    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="22" t="s">
         <v>49</v>
@@ -10400,7 +10408,7 @@
       <c r="M129" s="21"/>
       <c r="N129" s="21"/>
     </row>
-    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="22" t="s">
         <v>51</v>
@@ -10426,7 +10434,7 @@
       <c r="M130" s="21"/>
       <c r="N130" s="21"/>
     </row>
-    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="22" t="s">
         <v>25</v>
@@ -10454,7 +10462,7 @@
       <c r="M131" s="21"/>
       <c r="N131" s="21"/>
     </row>
-    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
       <c r="B132" s="22"/>
       <c r="C132" s="14"/>
@@ -10469,7 +10477,7 @@
       <c r="M132" s="21"/>
       <c r="N132" s="21"/>
     </row>
-    <row r="133" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25">
         <v>21</v>
       </c>
@@ -10486,7 +10494,7 @@
       <c r="J133" s="39"/>
       <c r="K133" s="30"/>
     </row>
-    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="22" t="s">
         <v>79</v>
@@ -10512,7 +10520,7 @@
       <c r="J134" s="39"/>
       <c r="K134" s="30"/>
     </row>
-    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="22"/>
       <c r="C135" s="26">
@@ -10536,7 +10544,7 @@
       <c r="J135" s="39"/>
       <c r="K135" s="30"/>
     </row>
-    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
       <c r="B136" s="22" t="s">
         <v>25</v>
@@ -10562,7 +10570,7 @@
       </c>
       <c r="K136" s="30"/>
     </row>
-    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
       <c r="B137" s="22"/>
       <c r="C137" s="26"/>
@@ -10575,7 +10583,7 @@
       <c r="J137" s="29"/>
       <c r="K137" s="30"/>
     </row>
-    <row r="138" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="47">
         <v>22</v>
       </c>
@@ -10592,7 +10600,7 @@
       <c r="J138" s="51"/>
       <c r="K138" s="52"/>
     </row>
-    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47"/>
       <c r="B139" s="48" t="s">
         <v>81</v>
@@ -10617,7 +10625,7 @@
       <c r="J139" s="51"/>
       <c r="K139" s="52"/>
     </row>
-    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="47"/>
       <c r="B140" s="48" t="s">
         <v>82</v>
@@ -10641,7 +10649,7 @@
       <c r="J140" s="51"/>
       <c r="K140" s="52"/>
     </row>
-    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="47"/>
       <c r="B141" s="48" t="s">
         <v>25</v>
@@ -10667,7 +10675,7 @@
       </c>
       <c r="K141" s="52"/>
     </row>
-    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
       <c r="B142" s="22"/>
       <c r="C142" s="14"/>
@@ -10682,7 +10690,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="21"/>
     </row>
-    <row r="143" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25">
         <v>23</v>
       </c>
@@ -10699,7 +10707,7 @@
       <c r="J143" s="39"/>
       <c r="K143" s="30"/>
     </row>
-    <row r="144" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="25"/>
       <c r="B144" s="22" t="s">
         <v>84</v>
@@ -10729,7 +10737,7 @@
       <c r="J144" s="39"/>
       <c r="K144" s="30"/>
     </row>
-    <row r="145" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="25"/>
       <c r="B145" s="30"/>
       <c r="C145" s="26">
@@ -10757,7 +10765,7 @@
       <c r="J145" s="39"/>
       <c r="K145" s="30"/>
     </row>
-    <row r="146" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25"/>
       <c r="B146" s="22"/>
       <c r="C146" s="26">
@@ -10785,7 +10793,7 @@
       <c r="J146" s="39"/>
       <c r="K146" s="30"/>
     </row>
-    <row r="147" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25"/>
       <c r="B147" s="22"/>
       <c r="C147" s="26">
@@ -10813,7 +10821,7 @@
       <c r="J147" s="39"/>
       <c r="K147" s="30"/>
     </row>
-    <row r="148" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25"/>
       <c r="B148" s="22"/>
       <c r="C148" s="26">
@@ -10841,7 +10849,7 @@
       <c r="J148" s="39"/>
       <c r="K148" s="30"/>
     </row>
-    <row r="149" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25"/>
       <c r="B149" s="22"/>
       <c r="C149" s="26">
@@ -10869,7 +10877,7 @@
       <c r="J149" s="39"/>
       <c r="K149" s="30"/>
     </row>
-    <row r="150" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25"/>
       <c r="B150" s="22"/>
       <c r="C150" s="26">
@@ -10897,7 +10905,7 @@
       <c r="J150" s="39"/>
       <c r="K150" s="30"/>
     </row>
-    <row r="151" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25"/>
       <c r="B151" s="22" t="s">
         <v>25</v>
@@ -10923,7 +10931,7 @@
       </c>
       <c r="K151" s="30"/>
     </row>
-    <row r="152" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25"/>
       <c r="B152" s="22" t="s">
         <v>85</v>
@@ -10942,7 +10950,7 @@
       <c r="K152" s="30"/>
       <c r="M152" s="58"/>
     </row>
-    <row r="153" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25"/>
       <c r="B153" s="22"/>
       <c r="C153" s="26"/>
@@ -10956,7 +10964,7 @@
       <c r="K153" s="30"/>
       <c r="M153" s="58"/>
     </row>
-    <row r="154" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="47">
         <v>23</v>
       </c>
@@ -10973,7 +10981,7 @@
       <c r="J154" s="57"/>
       <c r="K154" s="52"/>
     </row>
-    <row r="155" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25"/>
       <c r="B155" s="22" t="s">
         <v>84</v>
@@ -11003,7 +11011,7 @@
       <c r="J155" s="39"/>
       <c r="K155" s="30"/>
     </row>
-    <row r="156" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25"/>
       <c r="B156" s="22"/>
       <c r="C156" s="26">
@@ -11031,7 +11039,7 @@
       <c r="J156" s="39"/>
       <c r="K156" s="30"/>
     </row>
-    <row r="157" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25"/>
       <c r="B157" s="22"/>
       <c r="C157" s="26">
@@ -11059,7 +11067,7 @@
       <c r="J157" s="39"/>
       <c r="K157" s="30"/>
     </row>
-    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="25"/>
       <c r="B158" s="22" t="s">
         <v>30</v>
@@ -11086,7 +11094,7 @@
       <c r="J158" s="39"/>
       <c r="K158" s="30"/>
     </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25"/>
       <c r="B159" s="22" t="s">
         <v>25</v>
@@ -11112,7 +11120,7 @@
       </c>
       <c r="K159" s="30"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="25"/>
       <c r="B160" s="22"/>
       <c r="C160" s="26"/>
@@ -11126,11 +11134,11 @@
       <c r="K160" s="30"/>
       <c r="M160" s="58"/>
     </row>
-    <row r="161" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>25</v>
       </c>
-      <c r="B161" s="84" t="s">
+      <c r="B161" s="72" t="s">
         <v>87</v>
       </c>
       <c r="C161" s="14"/>
@@ -11150,7 +11158,7 @@
       <c r="R161" s="21"/>
       <c r="S161" s="21"/>
     </row>
-    <row r="162" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" s="13" t="str">
         <f>B43</f>
@@ -11178,7 +11186,7 @@
       <c r="J162" s="20"/>
       <c r="K162" s="16"/>
       <c r="M162" s="21"/>
-      <c r="N162" s="85"/>
+      <c r="N162" s="73"/>
       <c r="O162" s="1">
         <v>173798.37571991887</v>
       </c>
@@ -11187,7 +11195,7 @@
       <c r="R162" s="21"/>
       <c r="S162" s="21"/>
     </row>
-    <row r="163" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25"/>
       <c r="B163" s="22" t="s">
         <v>25</v>
@@ -11213,7 +11221,7 @@
       </c>
       <c r="K163" s="30"/>
     </row>
-    <row r="164" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25"/>
       <c r="B164" s="22" t="s">
         <v>85</v>
@@ -11231,7 +11239,7 @@
       </c>
       <c r="K164" s="30"/>
     </row>
-    <row r="165" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="59"/>
       <c r="C165" s="14"/>
@@ -11251,7 +11259,7 @@
       <c r="R165" s="21"/>
       <c r="S165" s="21"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>24</v>
       </c>
@@ -11268,7 +11276,7 @@
       <c r="J166" s="39"/>
       <c r="K166" s="30"/>
     </row>
-    <row r="167" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25"/>
       <c r="B167" s="22" t="s">
         <v>89</v>
@@ -11288,7 +11296,7 @@
       <c r="J167" s="39"/>
       <c r="K167" s="30"/>
     </row>
-    <row r="168" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25"/>
       <c r="B168" s="22" t="s">
         <v>25</v>
@@ -11314,7 +11322,7 @@
       </c>
       <c r="K168" s="30"/>
     </row>
-    <row r="169" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="22"/>
       <c r="C169" s="26"/>
@@ -11327,7 +11335,7 @@
       <c r="J169" s="29"/>
       <c r="K169" s="30"/>
     </row>
-    <row r="170" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A170" s="25">
         <v>25</v>
       </c>
@@ -11344,7 +11352,7 @@
       <c r="J170" s="39"/>
       <c r="K170" s="30"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="25"/>
       <c r="B171" s="22" t="s">
         <v>92</v>
@@ -11371,7 +11379,7 @@
       <c r="J171" s="39"/>
       <c r="K171" s="30"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="25"/>
       <c r="B172" s="22"/>
       <c r="C172" s="26">
@@ -11396,7 +11404,7 @@
       <c r="J172" s="39"/>
       <c r="K172" s="30"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="25"/>
       <c r="B173" s="22"/>
       <c r="C173" s="26">
@@ -11421,7 +11429,7 @@
       <c r="J173" s="39"/>
       <c r="K173" s="30"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="25"/>
       <c r="B174" s="22" t="s">
         <v>93</v>
@@ -11448,7 +11456,7 @@
       <c r="J174" s="39"/>
       <c r="K174" s="30"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="25"/>
       <c r="B175" s="22"/>
       <c r="C175" s="26">
@@ -11473,7 +11481,7 @@
       <c r="J175" s="39"/>
       <c r="K175" s="30"/>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25"/>
       <c r="B176" s="22" t="s">
         <v>94</v>
@@ -11501,7 +11509,7 @@
       <c r="J176" s="39"/>
       <c r="K176" s="30"/>
     </row>
-    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25"/>
       <c r="B177" s="22" t="s">
         <v>25</v>
@@ -11527,7 +11535,7 @@
       </c>
       <c r="K177" s="30"/>
     </row>
-    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25"/>
       <c r="B178" s="22"/>
       <c r="C178" s="26"/>
@@ -11540,7 +11548,7 @@
       <c r="J178" s="39"/>
       <c r="K178" s="30"/>
     </row>
-    <row r="179" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>26</v>
       </c>
@@ -11557,7 +11565,7 @@
       <c r="J179" s="37"/>
       <c r="K179" s="16"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
       <c r="B180" s="43" t="s">
         <v>95</v>
@@ -11582,7 +11590,7 @@
       <c r="J180" s="37"/>
       <c r="K180" s="16"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="43" t="str">
         <f>B171</f>
@@ -11609,7 +11617,7 @@
       <c r="J181" s="37"/>
       <c r="K181" s="16"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="43"/>
       <c r="C182" s="14">
@@ -11632,7 +11640,7 @@
       <c r="J182" s="37"/>
       <c r="K182" s="16"/>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
       <c r="B183" s="43" t="s">
         <v>94</v>
@@ -11659,7 +11667,7 @@
       <c r="J183" s="37"/>
       <c r="K183" s="16"/>
     </row>
-    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="25"/>
       <c r="B184" s="43" t="s">
         <v>25</v>
@@ -11685,7 +11693,7 @@
       </c>
       <c r="K184" s="34"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="B185" s="54"/>
       <c r="C185" s="14"/>
@@ -11698,7 +11706,7 @@
       <c r="J185" s="37"/>
       <c r="K185" s="16"/>
     </row>
-    <row r="186" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="25">
         <v>27</v>
       </c>
@@ -11715,7 +11723,7 @@
       <c r="J186" s="39"/>
       <c r="K186" s="30"/>
     </row>
-    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
       <c r="B187" s="22" t="s">
         <v>96</v>
@@ -11741,7 +11749,7 @@
       <c r="J187" s="39"/>
       <c r="K187" s="30"/>
     </row>
-    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="25"/>
       <c r="B188" s="22" t="s">
         <v>94</v>
@@ -11768,7 +11776,7 @@
       <c r="J188" s="39"/>
       <c r="K188" s="30"/>
     </row>
-    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="25"/>
       <c r="B189" s="22" t="s">
         <v>25</v>
@@ -11794,7 +11802,7 @@
       </c>
       <c r="K189" s="30"/>
     </row>
-    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="25"/>
       <c r="B190" s="22"/>
       <c r="C190" s="26"/>
@@ -11808,7 +11816,7 @@
       <c r="K190" s="30"/>
       <c r="M190" s="58"/>
     </row>
-    <row r="191" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A191" s="25">
         <v>28</v>
       </c>
@@ -11826,7 +11834,7 @@
       <c r="K191" s="30"/>
       <c r="M191" s="58"/>
     </row>
-    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="25"/>
       <c r="B192" s="22" t="s">
         <v>98</v>
@@ -11852,7 +11860,7 @@
       <c r="J192" s="39"/>
       <c r="K192" s="30"/>
     </row>
-    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="25"/>
       <c r="B193" s="22" t="s">
         <v>25</v>
@@ -11878,7 +11886,7 @@
       </c>
       <c r="K193" s="30"/>
     </row>
-    <row r="194" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="B194" s="11"/>
       <c r="C194" s="26"/>
@@ -11892,7 +11900,7 @@
       <c r="K194" s="30"/>
       <c r="M194" s="58"/>
     </row>
-    <row r="195" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="25">
         <v>29</v>
       </c>
@@ -11909,7 +11917,7 @@
       <c r="J195" s="39"/>
       <c r="K195" s="30"/>
     </row>
-    <row r="196" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="25"/>
       <c r="B196" s="22" t="s">
         <v>98</v>
@@ -11935,7 +11943,7 @@
       <c r="J196" s="39"/>
       <c r="K196" s="30"/>
     </row>
-    <row r="197" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="25"/>
       <c r="B197" s="22" t="s">
         <v>25</v>
@@ -11961,7 +11969,7 @@
       </c>
       <c r="K197" s="30"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="25"/>
       <c r="B198" s="24"/>
       <c r="C198" s="26"/>
@@ -11974,11 +11982,11 @@
       <c r="J198" s="39"/>
       <c r="K198" s="30"/>
     </row>
-    <row r="199" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>32</v>
       </c>
-      <c r="B199" s="84" t="s">
+      <c r="B199" s="72" t="s">
         <v>100</v>
       </c>
       <c r="C199" s="14"/>
@@ -11998,7 +12006,7 @@
       <c r="R199" s="21"/>
       <c r="S199" s="21"/>
     </row>
-    <row r="200" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="B200" s="13" t="s">
         <v>101</v>
@@ -12031,7 +12039,7 @@
       <c r="R200" s="21"/>
       <c r="S200" s="21"/>
     </row>
-    <row r="201" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25"/>
       <c r="B201" s="22" t="s">
         <v>25</v>
@@ -12057,7 +12065,7 @@
       </c>
       <c r="K201" s="30"/>
     </row>
-    <row r="202" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25"/>
       <c r="B202" s="22" t="s">
         <v>85</v>
@@ -12075,7 +12083,7 @@
       </c>
       <c r="K202" s="30"/>
     </row>
-    <row r="203" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="25"/>
       <c r="B203" s="22"/>
       <c r="C203" s="26"/>
@@ -12088,11 +12096,11 @@
       <c r="J203" s="39"/>
       <c r="K203" s="30"/>
     </row>
-    <row r="204" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>33</v>
       </c>
-      <c r="B204" s="84" t="s">
+      <c r="B204" s="72" t="s">
         <v>102</v>
       </c>
       <c r="C204" s="26"/>
@@ -12105,7 +12113,7 @@
       <c r="J204" s="39"/>
       <c r="K204" s="30"/>
     </row>
-    <row r="205" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" s="13" t="s">
         <v>101</v>
@@ -12136,7 +12144,7 @@
       <c r="R205" s="21"/>
       <c r="S205" s="21"/>
     </row>
-    <row r="206" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="25"/>
       <c r="B206" s="22" t="s">
         <v>25</v>
@@ -12161,7 +12169,7 @@
       </c>
       <c r="K206" s="30"/>
     </row>
-    <row r="207" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="25"/>
       <c r="B207" s="22" t="s">
         <v>85</v>
@@ -12179,7 +12187,7 @@
       </c>
       <c r="K207" s="30"/>
     </row>
-    <row r="208" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="25"/>
       <c r="B208" s="22"/>
       <c r="C208" s="26"/>
@@ -12192,11 +12200,11 @@
       <c r="J208" s="39"/>
       <c r="K208" s="30"/>
     </row>
-    <row r="209" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="25">
         <v>34</v>
       </c>
-      <c r="B209" s="84" t="s">
+      <c r="B209" s="72" t="s">
         <v>103</v>
       </c>
       <c r="C209" s="26"/>
@@ -12209,7 +12217,7 @@
       <c r="J209" s="39"/>
       <c r="K209" s="30"/>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="25"/>
       <c r="B210" s="22" t="s">
         <v>104</v>
@@ -12229,7 +12237,7 @@
       <c r="J210" s="39"/>
       <c r="K210" s="30"/>
     </row>
-    <row r="211" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="25"/>
       <c r="B211" s="22" t="s">
         <v>25</v>
@@ -12254,7 +12262,7 @@
       </c>
       <c r="K211" s="30"/>
     </row>
-    <row r="212" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="25"/>
       <c r="B212" s="22" t="s">
         <v>85</v>
@@ -12272,7 +12280,7 @@
       </c>
       <c r="K212" s="30"/>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="25"/>
       <c r="B213" s="24"/>
       <c r="C213" s="26"/>
@@ -12285,11 +12293,11 @@
       <c r="J213" s="39"/>
       <c r="K213" s="30"/>
     </row>
-    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>30</v>
       </c>
-      <c r="B214" s="84" t="s">
+      <c r="B214" s="72" t="s">
         <v>118</v>
       </c>
       <c r="C214" s="14"/>
@@ -12309,7 +12317,7 @@
       <c r="R214" s="21"/>
       <c r="S214" s="21"/>
     </row>
-    <row r="215" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" s="13" t="s">
         <v>101</v>
@@ -12342,7 +12350,7 @@
       <c r="R215" s="21"/>
       <c r="S215" s="21"/>
     </row>
-    <row r="216" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="25"/>
       <c r="B216" s="22" t="s">
         <v>25</v>
@@ -12368,7 +12376,7 @@
       </c>
       <c r="K216" s="30"/>
     </row>
-    <row r="217" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="25"/>
       <c r="B217" s="22"/>
       <c r="C217" s="26"/>
@@ -12381,7 +12389,7 @@
       <c r="J217" s="39"/>
       <c r="K217" s="30"/>
     </row>
-    <row r="218" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="25">
         <v>31</v>
       </c>
@@ -12398,7 +12406,7 @@
       <c r="J218" s="39"/>
       <c r="K218" s="30"/>
     </row>
-    <row r="219" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
       <c r="B219" s="13" t="s">
         <v>101</v>
@@ -12428,7 +12436,7 @@
       <c r="R219" s="21"/>
       <c r="S219" s="21"/>
     </row>
-    <row r="220" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="25"/>
       <c r="B220" s="22" t="s">
         <v>25</v>
@@ -12454,7 +12462,7 @@
       </c>
       <c r="K220" s="30"/>
     </row>
-    <row r="221" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="25"/>
       <c r="B221" s="22"/>
       <c r="C221" s="26"/>
@@ -12467,7 +12475,7 @@
       <c r="J221" s="39"/>
       <c r="K221" s="30"/>
     </row>
-    <row r="222" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="25">
         <v>32</v>
       </c>
@@ -12484,7 +12492,7 @@
       <c r="J222" s="39"/>
       <c r="K222" s="30"/>
     </row>
-    <row r="223" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="B223" s="13" t="s">
         <v>101</v>
@@ -12511,7 +12519,7 @@
       <c r="R223" s="21"/>
       <c r="S223" s="21"/>
     </row>
-    <row r="224" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="25"/>
       <c r="B224" s="22" t="s">
         <v>25</v>
@@ -12537,7 +12545,7 @@
       </c>
       <c r="K224" s="30"/>
     </row>
-    <row r="225" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="25"/>
       <c r="B225" s="22"/>
       <c r="C225" s="26"/>
@@ -12550,7 +12558,7 @@
       <c r="J225" s="39"/>
       <c r="K225" s="30"/>
     </row>
-    <row r="226" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="25">
         <v>33</v>
       </c>
@@ -12567,7 +12575,7 @@
       <c r="J226" s="39"/>
       <c r="K226" s="30"/>
     </row>
-    <row r="227" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
       <c r="B227" s="13" t="s">
         <v>123</v>
@@ -12594,7 +12602,7 @@
       <c r="R227" s="21"/>
       <c r="S227" s="21"/>
     </row>
-    <row r="228" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="25"/>
       <c r="B228" s="22" t="s">
         <v>25</v>
@@ -12620,7 +12628,7 @@
       </c>
       <c r="K228" s="30"/>
     </row>
-    <row r="229" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="25"/>
       <c r="B229" s="22"/>
       <c r="C229" s="26"/>
@@ -12633,7 +12641,7 @@
       <c r="J229" s="39"/>
       <c r="K229" s="30"/>
     </row>
-    <row r="230" spans="1:19" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="25">
         <v>34</v>
       </c>
@@ -12658,7 +12666,7 @@
       <c r="J230" s="25"/>
       <c r="K230" s="34"/>
     </row>
-    <row r="231" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="25"/>
       <c r="B231" s="22" t="s">
         <v>25</v>
@@ -12684,7 +12692,7 @@
       </c>
       <c r="K231" s="30"/>
     </row>
-    <row r="232" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="25"/>
       <c r="B232" s="22"/>
       <c r="C232" s="26"/>
@@ -12697,7 +12705,7 @@
       <c r="J232" s="39"/>
       <c r="K232" s="30"/>
     </row>
-    <row r="233" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>35</v>
       </c>
@@ -12726,7 +12734,7 @@
       </c>
       <c r="K233" s="34"/>
     </row>
-    <row r="234" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="25"/>
       <c r="B234" s="41"/>
       <c r="C234" s="26"/>
@@ -12739,7 +12747,7 @@
       <c r="J234" s="39"/>
       <c r="K234" s="30"/>
     </row>
-    <row r="235" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>36</v>
       </c>
@@ -12770,7 +12778,7 @@
       <c r="M235" s="21"/>
       <c r="N235" s="21"/>
     </row>
-    <row r="236" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
       <c r="B236" s="59"/>
       <c r="C236" s="14"/>
@@ -12785,7 +12793,7 @@
       <c r="M236" s="21"/>
       <c r="N236" s="21"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="25"/>
       <c r="B237" s="62" t="s">
         <v>128</v>
@@ -12803,16 +12811,16 @@
       </c>
       <c r="K237" s="30"/>
     </row>
-    <row r="239" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C239" s="78">
+      <c r="C239" s="86">
         <f>J237</f>
         <v>2058070.4791162037</v>
       </c>
-      <c r="D239" s="78"/>
-      <c r="E239" s="78"/>
+      <c r="D239" s="86"/>
+      <c r="E239" s="86"/>
       <c r="F239" s="65"/>
       <c r="G239" s="66"/>
       <c r="H239" s="65"/>
@@ -12820,120 +12828,120 @@
       <c r="J239" s="68"/>
       <c r="K239" s="69"/>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C240" s="86">
+      <c r="C240" s="88">
         <v>2250000</v>
       </c>
-      <c r="D240" s="86"/>
+      <c r="D240" s="88"/>
       <c r="E240" s="33"/>
     </row>
-    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C241" s="86">
+      <c r="C241" s="88">
         <f>C240-C243-C244</f>
         <v>2137500</v>
       </c>
-      <c r="D241" s="86"/>
+      <c r="D241" s="88"/>
       <c r="E241" s="33">
         <f>C241/C239*100</f>
         <v>103.85941694853452</v>
       </c>
     </row>
-    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="78">
+      <c r="C242" s="86">
         <f>C239-C241</f>
         <v>-79429.520883796271</v>
       </c>
-      <c r="D242" s="78"/>
+      <c r="D242" s="86"/>
       <c r="E242" s="33">
         <f>100-E241</f>
         <v>-3.8594169485345162</v>
       </c>
     </row>
-    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="78">
+      <c r="C243" s="86">
         <f>C240*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D243" s="78"/>
+      <c r="D243" s="86"/>
       <c r="E243" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="2:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="78">
+      <c r="C244" s="86">
         <f>C240*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D244" s="78"/>
+      <c r="D244" s="86"/>
       <c r="E244" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B245" s="87" t="s">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C245" s="88">
+      <c r="C245" s="87">
         <f>C239*0.13</f>
         <v>267549.16228510649</v>
       </c>
-      <c r="D245" s="88"/>
-      <c r="E245" s="88"/>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B246" s="87" t="s">
+      <c r="D245" s="87"/>
+      <c r="E245" s="87"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C246" s="88">
+      <c r="C246" s="87">
         <f>C239+C245</f>
         <v>2325619.6414013105</v>
       </c>
-      <c r="D246" s="88"/>
-      <c r="E246" s="88"/>
+      <c r="D246" s="87"/>
+      <c r="E246" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
     <mergeCell ref="C243:D243"/>
     <mergeCell ref="C244:D244"/>
     <mergeCell ref="C245:E245"/>
     <mergeCell ref="C246:E246"/>
     <mergeCell ref="C239:E239"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;LPrepared By:
-Kristal Suwal&amp;CChecked By:
-Er. Milan Phuyal&amp;RApproved By:
-Er. Prakash Singh Saud</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
+++ b/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
@@ -823,11 +823,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,30 +860,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1342,113 +1342,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7277,11 +7277,11 @@
       <c r="B267" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="81">
+      <c r="C267" s="76">
         <f>J265</f>
         <v>1886794.504041455</v>
       </c>
-      <c r="D267" s="82"/>
+      <c r="D267" s="77"/>
       <c r="E267" s="33">
         <v>100</v>
       </c>
@@ -7296,21 +7296,21 @@
       <c r="B268" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="84">
+      <c r="C268" s="80">
         <v>2250000</v>
       </c>
-      <c r="D268" s="85"/>
+      <c r="D268" s="81"/>
       <c r="E268" s="33"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C269" s="84">
+      <c r="C269" s="80">
         <f>C268-C271-C272</f>
         <v>2137500</v>
       </c>
-      <c r="D269" s="85"/>
+      <c r="D269" s="81"/>
       <c r="E269" s="33">
         <f>C269/C267*100</f>
         <v>113.28737684053785</v>
@@ -7320,11 +7320,11 @@
       <c r="B270" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="86">
+      <c r="C270" s="82">
         <f>C267-C269</f>
         <v>-250705.49595854501</v>
       </c>
-      <c r="D270" s="86"/>
+      <c r="D270" s="82"/>
       <c r="E270" s="33">
         <f>100-E269</f>
         <v>-13.287376840537846</v>
@@ -7334,11 +7334,11 @@
       <c r="B271" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="81">
+      <c r="C271" s="76">
         <f>C268*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D271" s="82"/>
+      <c r="D271" s="77"/>
       <c r="E271" s="33">
         <v>3</v>
       </c>
@@ -7347,17 +7347,24 @@
       <c r="B272" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C272" s="81">
+      <c r="C272" s="76">
         <f>C268*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D272" s="82"/>
+      <c r="D272" s="77"/>
       <c r="E272" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C271:D271"/>
     <mergeCell ref="C272:D272"/>
     <mergeCell ref="A7:F7"/>
@@ -7366,13 +7373,6 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="C270:D270"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7390,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7411,113 +7411,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -9357,7 +9357,7 @@
       <c r="A84" s="12">
         <v>12</v>
       </c>
-      <c r="B84" s="89" t="s">
+      <c r="B84" s="75" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="14"/>
@@ -9797,7 +9797,7 @@
       <c r="A103" s="12">
         <v>15</v>
       </c>
-      <c r="B103" s="89" t="s">
+      <c r="B103" s="75" t="s">
         <v>72</v>
       </c>
       <c r="C103" s="14"/>
@@ -10367,7 +10367,7 @@
       <c r="A128" s="12">
         <v>20</v>
       </c>
-      <c r="B128" s="89" t="s">
+      <c r="B128" s="75" t="s">
         <v>77</v>
       </c>
       <c r="C128" s="14"/>
@@ -12726,11 +12726,11 @@
         <v>107</v>
       </c>
       <c r="I233" s="37">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="J233" s="39">
         <f>G233*I233</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="K233" s="34"/>
     </row>
@@ -12807,7 +12807,7 @@
       <c r="I237" s="20"/>
       <c r="J237" s="20">
         <f>SUM(J14:J235)</f>
-        <v>2058070.4791162037</v>
+        <v>2108070.4791162037</v>
       </c>
       <c r="K237" s="30"/>
     </row>
@@ -12815,12 +12815,12 @@
       <c r="B239" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C239" s="86">
+      <c r="C239" s="82">
         <f>J237</f>
-        <v>2058070.4791162037</v>
-      </c>
-      <c r="D239" s="86"/>
-      <c r="E239" s="86"/>
+        <v>2108070.4791162037</v>
+      </c>
+      <c r="D239" s="82"/>
+      <c r="E239" s="82"/>
       <c r="F239" s="65"/>
       <c r="G239" s="66"/>
       <c r="H239" s="65"/>
@@ -12849,32 +12849,32 @@
       <c r="D241" s="88"/>
       <c r="E241" s="33">
         <f>C241/C239*100</f>
-        <v>103.85941694853452</v>
+        <v>101.39604065306843</v>
       </c>
     </row>
     <row r="242" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="86">
+      <c r="C242" s="82">
         <f>C239-C241</f>
-        <v>-79429.520883796271</v>
-      </c>
-      <c r="D242" s="86"/>
+        <v>-29429.520883796271</v>
+      </c>
+      <c r="D242" s="82"/>
       <c r="E242" s="33">
         <f>100-E241</f>
-        <v>-3.8594169485345162</v>
+        <v>-1.3960406530684253</v>
       </c>
     </row>
     <row r="243" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="86">
+      <c r="C243" s="82">
         <f>C240*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D243" s="86"/>
+      <c r="D243" s="82"/>
       <c r="E243" s="33">
         <v>3</v>
       </c>
@@ -12883,11 +12883,11 @@
       <c r="B244" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="86">
+      <c r="C244" s="82">
         <f>C240*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D244" s="86"/>
+      <c r="D244" s="82"/>
       <c r="E244" s="33">
         <v>2</v>
       </c>
@@ -12896,26 +12896,36 @@
       <c r="B245" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C245" s="87">
+      <c r="C245" s="89">
         <f>C239*0.13</f>
-        <v>267549.16228510649</v>
-      </c>
-      <c r="D245" s="87"/>
-      <c r="E245" s="87"/>
+        <v>274049.16228510649</v>
+      </c>
+      <c r="D245" s="89"/>
+      <c r="E245" s="89"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C246" s="87">
+      <c r="C246" s="89">
         <f>C239+C245</f>
-        <v>2325619.6414013105</v>
-      </c>
-      <c r="D246" s="87"/>
-      <c r="E246" s="87"/>
+        <v>2382119.6414013105</v>
+      </c>
+      <c r="D246" s="89"/>
+      <c r="E246" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -12923,16 +12933,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C239:E239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
+++ b/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="quotation" sheetId="4" r:id="rId2"/>
+    <sheet name="quotation (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
+    <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
     <definedName name="description_261">[2]Abstract!$B$33</definedName>
@@ -28,6 +30,7 @@
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">final!$A$1:$K$272</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">quotation!$A$6:$K$246</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'quotation (2)'!$A$6:$K$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">final!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="132">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -450,6 +453,9 @@
   <si>
     <t xml:space="preserve">F.Y.: 2081/2082      </t>
   </si>
+  <si>
+    <t>20 gauge Brass plate making and fixing on roof</t>
+  </si>
 </sst>
 </file>
 
@@ -826,27 +832,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,11 +850,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1342,113 +1348,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7277,11 +7283,11 @@
       <c r="B267" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="76">
+      <c r="C267" s="82">
         <f>J265</f>
         <v>1886794.504041455</v>
       </c>
-      <c r="D267" s="77"/>
+      <c r="D267" s="83"/>
       <c r="E267" s="33">
         <v>100</v>
       </c>
@@ -7296,21 +7302,21 @@
       <c r="B268" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="80">
+      <c r="C268" s="85">
         <v>2250000</v>
       </c>
-      <c r="D268" s="81"/>
+      <c r="D268" s="86"/>
       <c r="E268" s="33"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C269" s="80">
+      <c r="C269" s="85">
         <f>C268-C271-C272</f>
         <v>2137500</v>
       </c>
-      <c r="D269" s="81"/>
+      <c r="D269" s="86"/>
       <c r="E269" s="33">
         <f>C269/C267*100</f>
         <v>113.28737684053785</v>
@@ -7320,11 +7326,11 @@
       <c r="B270" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="82">
+      <c r="C270" s="87">
         <f>C267-C269</f>
         <v>-250705.49595854501</v>
       </c>
-      <c r="D270" s="82"/>
+      <c r="D270" s="87"/>
       <c r="E270" s="33">
         <f>100-E269</f>
         <v>-13.287376840537846</v>
@@ -7334,11 +7340,11 @@
       <c r="B271" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="76">
+      <c r="C271" s="82">
         <f>C268*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D271" s="77"/>
+      <c r="D271" s="83"/>
       <c r="E271" s="33">
         <v>3</v>
       </c>
@@ -7347,24 +7353,17 @@
       <c r="B272" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C272" s="76">
+      <c r="C272" s="82">
         <f>C268*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D272" s="77"/>
+      <c r="D272" s="83"/>
       <c r="E272" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C271:D271"/>
     <mergeCell ref="C272:D272"/>
     <mergeCell ref="A7:F7"/>
@@ -7373,6 +7372,13 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="C270:D270"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7390,8 +7396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView topLeftCell="A220" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7411,113 +7417,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -12815,12 +12821,12 @@
       <c r="B239" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C239" s="82">
+      <c r="C239" s="87">
         <f>J237</f>
         <v>2108070.4791162037</v>
       </c>
-      <c r="D239" s="82"/>
-      <c r="E239" s="82"/>
+      <c r="D239" s="87"/>
+      <c r="E239" s="87"/>
       <c r="F239" s="65"/>
       <c r="G239" s="66"/>
       <c r="H239" s="65"/>
@@ -12832,21 +12838,21 @@
       <c r="B240" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C240" s="88">
+      <c r="C240" s="89">
         <v>2250000</v>
       </c>
-      <c r="D240" s="88"/>
+      <c r="D240" s="89"/>
       <c r="E240" s="33"/>
     </row>
     <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C241" s="88">
+      <c r="C241" s="89">
         <f>C240-C243-C244</f>
         <v>2137500</v>
       </c>
-      <c r="D241" s="88"/>
+      <c r="D241" s="89"/>
       <c r="E241" s="33">
         <f>C241/C239*100</f>
         <v>101.39604065306843</v>
@@ -12856,11 +12862,11 @@
       <c r="B242" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="82">
+      <c r="C242" s="87">
         <f>C239-C241</f>
         <v>-29429.520883796271</v>
       </c>
-      <c r="D242" s="82"/>
+      <c r="D242" s="87"/>
       <c r="E242" s="33">
         <f>100-E241</f>
         <v>-1.3960406530684253</v>
@@ -12870,11 +12876,11 @@
       <c r="B243" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="82">
+      <c r="C243" s="87">
         <f>C240*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D243" s="82"/>
+      <c r="D243" s="87"/>
       <c r="E243" s="33">
         <v>3</v>
       </c>
@@ -12883,11 +12889,11 @@
       <c r="B244" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="82">
+      <c r="C244" s="87">
         <f>C240*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D244" s="82"/>
+      <c r="D244" s="87"/>
       <c r="E244" s="33">
         <v>2</v>
       </c>
@@ -12896,36 +12902,26 @@
       <c r="B245" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C245" s="89">
+      <c r="C245" s="88">
         <f>C239*0.13</f>
         <v>274049.16228510649</v>
       </c>
-      <c r="D245" s="89"/>
-      <c r="E245" s="89"/>
+      <c r="D245" s="88"/>
+      <c r="E245" s="88"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C246" s="89">
+      <c r="C246" s="88">
         <f>C239+C245</f>
         <v>2382119.6414013105</v>
       </c>
-      <c r="D246" s="89"/>
-      <c r="E246" s="89"/>
+      <c r="D246" s="88"/>
+      <c r="E246" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C239:E239"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -12933,6 +12929,1064 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="C239:E239"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>32</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <f>((15.667+16.25)/2)/3.281</f>
+        <v>4.8639134410240779</v>
+      </c>
+      <c r="E10" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <v>31.872642176780758</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27">
+        <f>0*SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="28">
+        <f>(325188.75/100)</f>
+        <v>3251.8874999999998</v>
+      </c>
+      <c r="J11" s="29">
+        <f>G11*I11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="39">
+        <f>0.13*G11*((221748.75)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>33</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="14">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
+        <f>D10</f>
+        <v>4.8639134410240779</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f>PRODUCT(C15:F15)</f>
+        <v>19.455653764096311</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="27">
+        <f>0*SUM(G15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1842.85</v>
+      </c>
+      <c r="J16" s="29">
+        <f>G16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="39">
+        <f>0.13*G16*((164000)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>34</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
+        <f t="shared" ref="G20" si="1">PRODUCT(C20:F20)</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="27">
+        <f>0*SUM(G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="28">
+        <v>279</v>
+      </c>
+      <c r="J21" s="29">
+        <f>G21*I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="39">
+        <f>0.13*J21</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15">
+        <f>(((15.667+16.25)/2)/3.281)+0.2</f>
+        <v>5.063913441024078</v>
+      </c>
+      <c r="E25" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
+        <f t="shared" ref="G25" si="2">PRODUCT(C25:F25)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="27">
+        <f>SUM(G25:G25)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="28">
+        <v>14913.64</v>
+      </c>
+      <c r="J26" s="29">
+        <f>G26*I26</f>
+        <v>494882.57058451016</v>
+      </c>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>2</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17">
+        <f t="shared" ref="G29" si="3">PRODUCT(C29:F29)</f>
+        <v>6.5528802194452904</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="27">
+        <f>SUM(G29:G29)</f>
+        <v>6.5528802194452904</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="28">
+        <f>2563.07</f>
+        <v>2563.0700000000002</v>
+      </c>
+      <c r="J30" s="29">
+        <f>G30*I30</f>
+        <v>16795.490704053642</v>
+      </c>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>3</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="14">
+        <v>4</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17">
+        <f t="shared" ref="G33" si="4">PRODUCT(C33:F33)</f>
+        <v>4</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="16"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="27">
+        <f>SUM(G33:G33)</f>
+        <v>4</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="28">
+        <f>6970.73</f>
+        <v>6970.73</v>
+      </c>
+      <c r="J34" s="29">
+        <f>G34*I34</f>
+        <v>27882.92</v>
+      </c>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>4</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="32">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D36" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
+        <f>PRODUCT(C36:F36)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="27">
+        <f>SUM(G36:G36)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="27">
+        <f>4289.73</f>
+        <v>4289.7299999999996</v>
+      </c>
+      <c r="J37" s="29">
+        <f>G36*I37</f>
+        <v>45042.164999999994</v>
+      </c>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>5</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="37">
+        <f>PRODUCT(C39:F39)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="37">
+        <v>150000</v>
+      </c>
+      <c r="J39" s="39">
+        <f>G39*I39</f>
+        <v>150000</v>
+      </c>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>6</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="37">
+        <f t="shared" ref="G41" si="5">PRODUCT(C41:F41)</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" s="19">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="37">
+        <f>G41*I41</f>
+        <v>1000</v>
+      </c>
+      <c r="K41" s="16"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="16"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20">
+        <f>SUM(J9:J41)</f>
+        <v>735603.14628856385</v>
+      </c>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="87">
+        <f>J43</f>
+        <v>735603.14628856385</v>
+      </c>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="69"/>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="89">
+        <v>2250000</v>
+      </c>
+      <c r="D46" s="89"/>
+      <c r="E46" s="33"/>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="89">
+        <f>C46-C49-C50</f>
+        <v>2137500</v>
+      </c>
+      <c r="D47" s="89"/>
+      <c r="E47" s="33">
+        <f>C47/C45*100</f>
+        <v>290.57787623457193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="87">
+        <f>C45-C47</f>
+        <v>-1401896.853711436</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="33">
+        <f>100-E47</f>
+        <v>-190.57787623457193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="87">
+        <f>C46*0.03</f>
+        <v>67500</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="87">
+        <f>C46*0.02</f>
+        <v>45000</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="88">
+        <f>C45*0.13</f>
+        <v>95628.409017513302</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="88">
+        <f>C45+C51</f>
+        <v>831231.55530607712</v>
+      </c>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
+++ b/ofc/estimates/Finalized valuations/indrayani mandir/full estimate - Copy.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="quotation" sheetId="4" r:id="rId2"/>
     <sheet name="quotation (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="with plastic felt" sheetId="6" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
     <definedName name="description_261">[2]Abstract!$B$33</definedName>
@@ -31,6 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">final!$A$1:$K$272</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">quotation!$A$6:$K$246</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'quotation (2)'!$A$6:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'with plastic felt'!$A$6:$K$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">final!$1:$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="132">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -832,11 +835,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,27 +869,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1348,113 +1351,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -7283,11 +7286,11 @@
       <c r="B267" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C267" s="82">
+      <c r="C267" s="76">
         <f>J265</f>
         <v>1886794.504041455</v>
       </c>
-      <c r="D267" s="83"/>
+      <c r="D267" s="77"/>
       <c r="E267" s="33">
         <v>100</v>
       </c>
@@ -7302,21 +7305,21 @@
       <c r="B268" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C268" s="85">
+      <c r="C268" s="80">
         <v>2250000</v>
       </c>
-      <c r="D268" s="86"/>
+      <c r="D268" s="81"/>
       <c r="E268" s="33"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B269" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C269" s="85">
+      <c r="C269" s="80">
         <f>C268-C271-C272</f>
         <v>2137500</v>
       </c>
-      <c r="D269" s="86"/>
+      <c r="D269" s="81"/>
       <c r="E269" s="33">
         <f>C269/C267*100</f>
         <v>113.28737684053785</v>
@@ -7326,11 +7329,11 @@
       <c r="B270" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C270" s="87">
+      <c r="C270" s="82">
         <f>C267-C269</f>
         <v>-250705.49595854501</v>
       </c>
-      <c r="D270" s="87"/>
+      <c r="D270" s="82"/>
       <c r="E270" s="33">
         <f>100-E269</f>
         <v>-13.287376840537846</v>
@@ -7340,11 +7343,11 @@
       <c r="B271" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C271" s="82">
+      <c r="C271" s="76">
         <f>C268*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D271" s="83"/>
+      <c r="D271" s="77"/>
       <c r="E271" s="33">
         <v>3</v>
       </c>
@@ -7353,17 +7356,24 @@
       <c r="B272" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C272" s="82">
+      <c r="C272" s="76">
         <f>C268*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D272" s="83"/>
+      <c r="D272" s="77"/>
       <c r="E272" s="33">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C271:D271"/>
     <mergeCell ref="C272:D272"/>
     <mergeCell ref="A7:F7"/>
@@ -7372,13 +7382,6 @@
     <mergeCell ref="C268:D268"/>
     <mergeCell ref="C269:D269"/>
     <mergeCell ref="C270:D270"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7417,113 +7420,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -12821,12 +12824,12 @@
       <c r="B239" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C239" s="87">
+      <c r="C239" s="82">
         <f>J237</f>
         <v>2108070.4791162037</v>
       </c>
-      <c r="D239" s="87"/>
-      <c r="E239" s="87"/>
+      <c r="D239" s="82"/>
+      <c r="E239" s="82"/>
       <c r="F239" s="65"/>
       <c r="G239" s="66"/>
       <c r="H239" s="65"/>
@@ -12838,21 +12841,21 @@
       <c r="B240" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C240" s="89">
+      <c r="C240" s="88">
         <v>2250000</v>
       </c>
-      <c r="D240" s="89"/>
+      <c r="D240" s="88"/>
       <c r="E240" s="33"/>
     </row>
     <row r="241" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C241" s="89">
+      <c r="C241" s="88">
         <f>C240-C243-C244</f>
         <v>2137500</v>
       </c>
-      <c r="D241" s="89"/>
+      <c r="D241" s="88"/>
       <c r="E241" s="33">
         <f>C241/C239*100</f>
         <v>101.39604065306843</v>
@@ -12862,11 +12865,11 @@
       <c r="B242" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C242" s="87">
+      <c r="C242" s="82">
         <f>C239-C241</f>
         <v>-29429.520883796271</v>
       </c>
-      <c r="D242" s="87"/>
+      <c r="D242" s="82"/>
       <c r="E242" s="33">
         <f>100-E241</f>
         <v>-1.3960406530684253</v>
@@ -12876,11 +12879,11 @@
       <c r="B243" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C243" s="87">
+      <c r="C243" s="82">
         <f>C240*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D243" s="87"/>
+      <c r="D243" s="82"/>
       <c r="E243" s="33">
         <v>3</v>
       </c>
@@ -12889,11 +12892,11 @@
       <c r="B244" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C244" s="87">
+      <c r="C244" s="82">
         <f>C240*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D244" s="87"/>
+      <c r="D244" s="82"/>
       <c r="E244" s="33">
         <v>2</v>
       </c>
@@ -12902,26 +12905,36 @@
       <c r="B245" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C245" s="88">
+      <c r="C245" s="89">
         <f>C239*0.13</f>
         <v>274049.16228510649</v>
       </c>
-      <c r="D245" s="88"/>
-      <c r="E245" s="88"/>
+      <c r="D245" s="89"/>
+      <c r="E245" s="89"/>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C246" s="88">
+      <c r="C246" s="89">
         <f>C239+C245</f>
         <v>2382119.6414013105</v>
       </c>
-      <c r="D246" s="88"/>
-      <c r="E246" s="88"/>
+      <c r="D246" s="89"/>
+      <c r="E246" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="C239:E239"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -12929,16 +12942,6 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="C239:E239"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12956,7 +12959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -12977,113 +12980,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -13869,12 +13872,12 @@
       <c r="B45" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="87">
+      <c r="C45" s="82">
         <f>J43</f>
         <v>735603.14628856385</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
       <c r="F45" s="65"/>
       <c r="G45" s="66"/>
       <c r="H45" s="65"/>
@@ -13886,21 +13889,21 @@
       <c r="B46" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="89">
+      <c r="C46" s="88">
         <v>2250000</v>
       </c>
-      <c r="D46" s="89"/>
+      <c r="D46" s="88"/>
       <c r="E46" s="33"/>
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="89">
+      <c r="C47" s="88">
         <f>C46-C49-C50</f>
         <v>2137500</v>
       </c>
-      <c r="D47" s="89"/>
+      <c r="D47" s="88"/>
       <c r="E47" s="33">
         <f>C47/C45*100</f>
         <v>290.57787623457193</v>
@@ -13910,11 +13913,11 @@
       <c r="B48" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="87">
+      <c r="C48" s="82">
         <f>C45-C47</f>
         <v>-1401896.853711436</v>
       </c>
-      <c r="D48" s="87"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="33">
         <f>100-E47</f>
         <v>-190.57787623457193</v>
@@ -13924,11 +13927,11 @@
       <c r="B49" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="87">
+      <c r="C49" s="82">
         <f>C46*0.03</f>
         <v>67500</v>
       </c>
-      <c r="D49" s="87"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="33">
         <v>3</v>
       </c>
@@ -13937,11 +13940,11 @@
       <c r="B50" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="87">
+      <c r="C50" s="82">
         <f>C46*0.02</f>
         <v>45000</v>
       </c>
-      <c r="D50" s="87"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="33">
         <v>2</v>
       </c>
@@ -13950,36 +13953,1172 @@
       <c r="B51" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="88">
+      <c r="C51" s="89">
         <f>C45*0.13</f>
         <v>95628.409017513302</v>
       </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="88">
+      <c r="C52" s="89">
         <f>C45+C51</f>
         <v>831231.55530607712</v>
       </c>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="A7:F7"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="71" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>32</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
+        <f>((15.667+16.25)/2)/3.281</f>
+        <v>4.8639134410240779</v>
+      </c>
+      <c r="E10" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <v>31.872642176780758</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="27">
+        <f>0*SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="28">
+        <f>(325188.75/100)</f>
+        <v>3251.8874999999998</v>
+      </c>
+      <c r="J11" s="29">
+        <f>G11*I11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="39">
+        <f>0.13*G11*((221748.75)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>33</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="14">
+        <f>2*2</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
+        <f>D10</f>
+        <v>4.8639134410240779</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f>PRODUCT(C15:F15)</f>
+        <v>19.455653764096311</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="16"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="27">
+        <f>0*SUM(G15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1842.85</v>
+      </c>
+      <c r="J16" s="29">
+        <f>G16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="39">
+        <f>0.13*G16*((164000)/100)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>34</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
+        <f t="shared" ref="G20" si="1">PRODUCT(C20:F20)</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="27">
+        <f>0*SUM(G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="28">
+        <v>279</v>
+      </c>
+      <c r="J21" s="29">
+        <f>G21*I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="39">
+        <f>0.13*J21</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="16"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15">
+        <f>(((15.667+16.25)/2)/3.281)+0.2</f>
+        <v>5.063913441024078</v>
+      </c>
+      <c r="E25" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17">
+        <f t="shared" ref="G25" si="2">PRODUCT(C25:F25)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="27">
+        <f>SUM(G25:G25)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="28">
+        <v>14913.64</v>
+      </c>
+      <c r="J26" s="29">
+        <f>G26*I26</f>
+        <v>494882.57058451016</v>
+      </c>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>2</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17">
+        <f t="shared" ref="G29" si="3">PRODUCT(C29:F29)</f>
+        <v>6.5528802194452904</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="27">
+        <f>SUM(G29:G29)</f>
+        <v>6.5528802194452904</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="28">
+        <f>2563.07</f>
+        <v>2563.0700000000002</v>
+      </c>
+      <c r="J30" s="29">
+        <f>G30*I30</f>
+        <v>16795.490704053642</v>
+      </c>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>3</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="14">
+        <v>4</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17">
+        <f t="shared" ref="G33" si="4">PRODUCT(C33:F33)</f>
+        <v>4</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="16"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="27">
+        <f>SUM(G33:G33)</f>
+        <v>4</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="28">
+        <f>6970.73</f>
+        <v>6970.73</v>
+      </c>
+      <c r="J34" s="29">
+        <f>G34*I34</f>
+        <v>27882.92</v>
+      </c>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>4</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="32">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D36" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
+        <f>PRODUCT(C36:F36)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="27">
+        <f>SUM(G36:G36)</f>
+        <v>10.5</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="27">
+        <f>4289.73</f>
+        <v>4289.7299999999996</v>
+      </c>
+      <c r="J37" s="29">
+        <f>G36*I37</f>
+        <v>45042.164999999994</v>
+      </c>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
+        <v>5</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="14">
+        <v>2</v>
+      </c>
+      <c r="D40" s="15">
+        <f>(((15.667+16.25)/2)/3.281)+0.2</f>
+        <v>5.063913441024078</v>
+      </c>
+      <c r="E40" s="16">
+        <f>((10.75)/3.281)</f>
+        <v>3.2764401097226452</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17">
+        <f t="shared" ref="G40" si="5">PRODUCT(C40:F40)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="16"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="27">
+        <f>SUM(G40:G40)</f>
+        <v>33.183218220669815</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="28">
+        <v>685.98</v>
+      </c>
+      <c r="J41" s="29">
+        <f>G41*I41</f>
+        <v>22763.024035015082</v>
+      </c>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>6</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="32">
+        <v>1</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="37">
+        <f>PRODUCT(C43:F43)</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="37">
+        <v>150000</v>
+      </c>
+      <c r="J43" s="39">
+        <f>G43*I43</f>
+        <v>150000</v>
+      </c>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>7</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="37">
+        <f t="shared" ref="G45" si="6">PRODUCT(C45:F45)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="19">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="37">
+        <f>G45*I45</f>
+        <v>1000</v>
+      </c>
+      <c r="K45" s="16"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="16"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="63"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20">
+        <f>SUM(J9:J45)</f>
+        <v>758366.17032357887</v>
+      </c>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="49" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="82">
+        <f>J47</f>
+        <v>758366.17032357887</v>
+      </c>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="69"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="88">
+        <v>2250000</v>
+      </c>
+      <c r="D50" s="88"/>
+      <c r="E50" s="33"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="88">
+        <f>C50-C53-C54</f>
+        <v>2137500</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="33">
+        <f>C51/C49*100</f>
+        <v>281.8559270764905</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="82">
+        <f>C49-C51</f>
+        <v>-1379133.8296764211</v>
+      </c>
+      <c r="D52" s="82"/>
+      <c r="E52" s="33">
+        <f>100-E51</f>
+        <v>-181.8559270764905</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="82">
+        <f>C50*0.03</f>
+        <v>67500</v>
+      </c>
+      <c r="D53" s="82"/>
+      <c r="E53" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="82">
+        <f>C50*0.02</f>
+        <v>45000</v>
+      </c>
+      <c r="D54" s="82"/>
+      <c r="E54" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="89">
+        <f>C49*0.13</f>
+        <v>98587.602142065254</v>
+      </c>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="89">
+        <f>C49+C55</f>
+        <v>856953.77246564417</v>
+      </c>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
